--- a/marquette_courses_full.xlsx
+++ b/marquette_courses_full.xlsx
@@ -3779,14 +3779,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Core Required</t>
+          <t>Finance Required</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -3893,7 +3893,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5101,16 +5101,16 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CORE</t>
+          <t>BUS_ELEC_4</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ECON 1103</t>
+          <t>FINA 3002</t>
         </is>
       </c>
       <c r="D50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="b">
         <v>1</v>
@@ -5125,16 +5125,16 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CORE</t>
+          <t>BUS_ELEC_4</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ECON 1104</t>
+          <t>FINA 4002</t>
         </is>
       </c>
       <c r="D51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" t="b">
         <v>1</v>
@@ -5154,7 +5154,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>FINA 3002</t>
+          <t>FINA 4020</t>
         </is>
       </c>
       <c r="D52" t="b">
@@ -5178,7 +5178,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>FINA 4002</t>
+          <t>FINA 4023</t>
         </is>
       </c>
       <c r="D53" t="b">
@@ -5202,7 +5202,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>FINA 4020</t>
+          <t>FINA 4040</t>
         </is>
       </c>
       <c r="D54" t="b">
@@ -5226,7 +5226,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>FINA 4023</t>
+          <t>FINA 4050</t>
         </is>
       </c>
       <c r="D55" t="b">
@@ -5250,7 +5250,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>FINA 4040</t>
+          <t>FINA 4060</t>
         </is>
       </c>
       <c r="D56" t="b">
@@ -5274,7 +5274,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>FINA 4050</t>
+          <t>FINA 4065</t>
         </is>
       </c>
       <c r="D57" t="b">
@@ -5298,7 +5298,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>FINA 4060</t>
+          <t>FINA 4075</t>
         </is>
       </c>
       <c r="D58" t="b">
@@ -5322,7 +5322,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>FINA 4065</t>
+          <t>FINA 4081</t>
         </is>
       </c>
       <c r="D59" t="b">
@@ -5346,7 +5346,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>FINA 4075</t>
+          <t>FINA 4082</t>
         </is>
       </c>
       <c r="D60" t="b">
@@ -5370,7 +5370,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>FINA 4081</t>
+          <t>FINA 4084</t>
         </is>
       </c>
       <c r="D61" t="b">
@@ -5394,7 +5394,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>FINA 4082</t>
+          <t>FINA 4085</t>
         </is>
       </c>
       <c r="D62" t="b">
@@ -5418,7 +5418,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>FINA 4084</t>
+          <t>FINA 4191</t>
         </is>
       </c>
       <c r="D63" t="b">
@@ -5442,7 +5442,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>FINA 4085</t>
+          <t>FINA 4210</t>
         </is>
       </c>
       <c r="D64" t="b">
@@ -5466,7 +5466,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>FINA 4191</t>
+          <t>FINA 4211</t>
         </is>
       </c>
       <c r="D65" t="b">
@@ -5490,7 +5490,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>FINA 4210</t>
+          <t>FINA 4212</t>
         </is>
       </c>
       <c r="D66" t="b">
@@ -5514,7 +5514,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>FINA 4211</t>
+          <t>FINA 4931</t>
         </is>
       </c>
       <c r="D67" t="b">
@@ -5538,7 +5538,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>FINA 4212</t>
+          <t>FINA 4953</t>
         </is>
       </c>
       <c r="D68" t="b">
@@ -5562,7 +5562,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>FINA 4931</t>
+          <t>FINA 4986</t>
         </is>
       </c>
       <c r="D69" t="b">
@@ -5586,7 +5586,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>FINA 4953</t>
+          <t>FINA 4989</t>
         </is>
       </c>
       <c r="D70" t="b">
@@ -5605,16 +5605,16 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BUS_ELEC_4</t>
+          <t>CORE</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>FINA 4986</t>
+          <t>FINA 3002</t>
         </is>
       </c>
       <c r="D71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="b">
         <v>1</v>
@@ -5629,21 +5629,477 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BUS_ELEC_4</t>
+          <t>CORE</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>FINA 4002</t>
+        </is>
+      </c>
+      <c r="D72" t="b">
+        <v>1</v>
+      </c>
+      <c r="E72" t="b">
+        <v>1</v>
+      </c>
+      <c r="F72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>FINA 4020</t>
+        </is>
+      </c>
+      <c r="D73" t="b">
+        <v>1</v>
+      </c>
+      <c r="E73" t="b">
+        <v>1</v>
+      </c>
+      <c r="F73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>FINA 4023</t>
+        </is>
+      </c>
+      <c r="D74" t="b">
+        <v>1</v>
+      </c>
+      <c r="E74" t="b">
+        <v>1</v>
+      </c>
+      <c r="F74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>FINA 4040</t>
+        </is>
+      </c>
+      <c r="D75" t="b">
+        <v>1</v>
+      </c>
+      <c r="E75" t="b">
+        <v>1</v>
+      </c>
+      <c r="F75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>FINA 4050</t>
+        </is>
+      </c>
+      <c r="D76" t="b">
+        <v>1</v>
+      </c>
+      <c r="E76" t="b">
+        <v>1</v>
+      </c>
+      <c r="F76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>FINA 4060</t>
+        </is>
+      </c>
+      <c r="D77" t="b">
+        <v>1</v>
+      </c>
+      <c r="E77" t="b">
+        <v>1</v>
+      </c>
+      <c r="F77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>FINA 4065</t>
+        </is>
+      </c>
+      <c r="D78" t="b">
+        <v>1</v>
+      </c>
+      <c r="E78" t="b">
+        <v>1</v>
+      </c>
+      <c r="F78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>FINA 4075</t>
+        </is>
+      </c>
+      <c r="D79" t="b">
+        <v>1</v>
+      </c>
+      <c r="E79" t="b">
+        <v>1</v>
+      </c>
+      <c r="F79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>FINA 4081</t>
+        </is>
+      </c>
+      <c r="D80" t="b">
+        <v>1</v>
+      </c>
+      <c r="E80" t="b">
+        <v>1</v>
+      </c>
+      <c r="F80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>FINA 4082</t>
+        </is>
+      </c>
+      <c r="D81" t="b">
+        <v>1</v>
+      </c>
+      <c r="E81" t="b">
+        <v>1</v>
+      </c>
+      <c r="F81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>FINA 4084</t>
+        </is>
+      </c>
+      <c r="D82" t="b">
+        <v>1</v>
+      </c>
+      <c r="E82" t="b">
+        <v>1</v>
+      </c>
+      <c r="F82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>FINA 4085</t>
+        </is>
+      </c>
+      <c r="D83" t="b">
+        <v>1</v>
+      </c>
+      <c r="E83" t="b">
+        <v>1</v>
+      </c>
+      <c r="F83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>FINA 4191</t>
+        </is>
+      </c>
+      <c r="D84" t="b">
+        <v>1</v>
+      </c>
+      <c r="E84" t="b">
+        <v>1</v>
+      </c>
+      <c r="F84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>FINA 4210</t>
+        </is>
+      </c>
+      <c r="D85" t="b">
+        <v>1</v>
+      </c>
+      <c r="E85" t="b">
+        <v>1</v>
+      </c>
+      <c r="F85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>FINA 4211</t>
+        </is>
+      </c>
+      <c r="D86" t="b">
+        <v>1</v>
+      </c>
+      <c r="E86" t="b">
+        <v>1</v>
+      </c>
+      <c r="F86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>FINA 4212</t>
+        </is>
+      </c>
+      <c r="D87" t="b">
+        <v>1</v>
+      </c>
+      <c r="E87" t="b">
+        <v>1</v>
+      </c>
+      <c r="F87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>FINA 4931</t>
+        </is>
+      </c>
+      <c r="D88" t="b">
+        <v>1</v>
+      </c>
+      <c r="E88" t="b">
+        <v>1</v>
+      </c>
+      <c r="F88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>FINA 4953</t>
+        </is>
+      </c>
+      <c r="D89" t="b">
+        <v>1</v>
+      </c>
+      <c r="E89" t="b">
+        <v>1</v>
+      </c>
+      <c r="F89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>FINA 4986</t>
+        </is>
+      </c>
+      <c r="D90" t="b">
+        <v>1</v>
+      </c>
+      <c r="E90" t="b">
+        <v>1</v>
+      </c>
+      <c r="F90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
           <t>FINA 4989</t>
         </is>
       </c>
-      <c r="D72" t="b">
-        <v>0</v>
-      </c>
-      <c r="E72" t="b">
-        <v>1</v>
-      </c>
-      <c r="F72" t="inlineStr"/>
+      <c r="D91" t="b">
+        <v>1</v>
+      </c>
+      <c r="E91" t="b">
+        <v>1</v>
+      </c>
+      <c r="F91" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/marquette_courses_full.xlsx
+++ b/marquette_courses_full.xlsx
@@ -11,8 +11,7 @@
     <sheet name="equivalencies" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="tracks" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="buckets" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="bucket_course_map" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="README" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="README" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -418,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:T45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,6 +506,26 @@
           <t>prereq_tier</t>
         </is>
       </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>bucket1</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>bucket2</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>bucket3</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>bucket4</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -569,6 +588,14 @@
           <t>level_0</t>
         </is>
       </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -631,6 +658,14 @@
           <t>level_1</t>
         </is>
       </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -697,6 +732,14 @@
           <t>level_0</t>
         </is>
       </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -759,6 +802,10 @@
           <t>level_0</t>
         </is>
       </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -821,6 +868,14 @@
           <t>level_0</t>
         </is>
       </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -883,6 +938,14 @@
           <t>level_1</t>
         </is>
       </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -949,6 +1012,10 @@
           <t>level_0</t>
         </is>
       </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1015,6 +1082,10 @@
           <t>level_0</t>
         </is>
       </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1081,6 +1152,10 @@
           <t>level_1</t>
         </is>
       </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1147,6 +1222,10 @@
           <t>level_1</t>
         </is>
       </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1209,6 +1288,14 @@
           <t>level_2</t>
         </is>
       </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1275,6 +1362,14 @@
           <t>level_1</t>
         </is>
       </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1341,6 +1436,10 @@
           <t>level_0</t>
         </is>
       </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1407,6 +1506,10 @@
           <t>level_1</t>
         </is>
       </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1477,6 +1580,14 @@
           <t>level_2</t>
         </is>
       </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1543,6 +1654,26 @@
           <t>level_3</t>
         </is>
       </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_2</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_1</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1609,6 +1740,14 @@
           <t>level_0</t>
         </is>
       </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>GENERAL_ELEC</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1675,6 +1814,14 @@
           <t>level_3</t>
         </is>
       </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>GENERAL_ELEC</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1737,6 +1884,14 @@
           <t>level_3</t>
         </is>
       </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1799,6 +1954,26 @@
           <t>level_3</t>
         </is>
       </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_2</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_1</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1861,6 +2036,14 @@
           <t>level_3</t>
         </is>
       </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1923,6 +2106,26 @@
           <t>level_3</t>
         </is>
       </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_2</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_1</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1985,6 +2188,26 @@
           <t>level_3</t>
         </is>
       </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_2</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_1</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2047,6 +2270,26 @@
           <t>level_3</t>
         </is>
       </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_2</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_1</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2109,6 +2352,26 @@
           <t>level_3</t>
         </is>
       </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_2</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_1</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2171,6 +2434,26 @@
           <t>level_3</t>
         </is>
       </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_2</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_1</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2233,6 +2516,26 @@
           <t>level_3</t>
         </is>
       </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_2</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_1</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2295,6 +2598,26 @@
           <t>level_3</t>
         </is>
       </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_2</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_1</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2357,6 +2680,26 @@
           <t>level_4</t>
         </is>
       </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_2</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_1</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2419,6 +2762,26 @@
           <t>level_3</t>
         </is>
       </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_2</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_1</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2481,6 +2844,26 @@
           <t>level_3</t>
         </is>
       </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_2</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_1</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2547,6 +2930,26 @@
           <t>level_4</t>
         </is>
       </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_2</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_1</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2609,6 +3012,14 @@
           <t>level_3</t>
         </is>
       </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>GENERAL_ELEC</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2671,6 +3082,14 @@
           <t>level_3</t>
         </is>
       </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>GENERAL_ELEC</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2733,6 +3152,14 @@
           <t>level_4</t>
         </is>
       </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>GENERAL_ELEC</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2795,6 +3222,22 @@
           <t>level_3</t>
         </is>
       </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_2</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2865,6 +3308,26 @@
           <t>level_3</t>
         </is>
       </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_2</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_1</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2931,6 +3394,26 @@
           <t>level_4</t>
         </is>
       </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_2</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_1</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2993,6 +3476,26 @@
           <t>level_4</t>
         </is>
       </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_2</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_1</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3055,6 +3558,26 @@
           <t>level_3</t>
         </is>
       </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_2</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_1</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3117,6 +3640,22 @@
           <t>level_3</t>
         </is>
       </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_2</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3183,6 +3722,22 @@
           <t>level_4</t>
         </is>
       </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_2</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3249,6 +3804,22 @@
           <t>level_3</t>
         </is>
       </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_2</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3315,6 +3886,14 @@
           <t>level_0</t>
         </is>
       </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>GENERAL_ELEC</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3716,7 +4295,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3783,7 +4362,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
         <v>6</v>
@@ -3811,7 +4390,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -3841,7 +4420,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -3867,11 +4446,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Business Electives</t>
+          <t>Business Core</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -3880,6 +4459,32 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>GENERAL_ELEC</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>General Elective</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>99</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3888,2225 +4493,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F91"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>program_id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>bucket_id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>course_code</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>is_required</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>can_double_count</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>constraints</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CORE</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>FINA 3001</t>
-        </is>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CORE</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>FINA 4001</t>
-        </is>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>equiv_group:EQUIV_FINA_4001</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CORE</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>FINA 4011</t>
-        </is>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>equiv_group:EQUIV_FINA_4011</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_2</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>FINA 3002</t>
-        </is>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_2</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>FINA 4002</t>
-        </is>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_2</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>FINA 4020</t>
-        </is>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_2</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>FINA 4023</t>
-        </is>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_2</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>FINA 4040</t>
-        </is>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_2</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>FINA 4050</t>
-        </is>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_2</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>FINA 4060</t>
-        </is>
-      </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_2</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>FINA 4065</t>
-        </is>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_2</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>FINA 4075</t>
-        </is>
-      </c>
-      <c r="D13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_2</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>FINA 4081</t>
-        </is>
-      </c>
-      <c r="D14" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_2</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>FINA 4082</t>
-        </is>
-      </c>
-      <c r="D15" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_2</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>FINA 4084</t>
-        </is>
-      </c>
-      <c r="D16" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_2</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>FINA 4085</t>
-        </is>
-      </c>
-      <c r="D17" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_2</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>FINA 4191</t>
-        </is>
-      </c>
-      <c r="D18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18" t="b">
-        <v>1</v>
-      </c>
-      <c r="F18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_2</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>FINA 4210</t>
-        </is>
-      </c>
-      <c r="D19" t="b">
-        <v>0</v>
-      </c>
-      <c r="E19" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_2</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>FINA 4211</t>
-        </is>
-      </c>
-      <c r="D20" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_2</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>FINA 4212</t>
-        </is>
-      </c>
-      <c r="D21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21" t="b">
-        <v>1</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_2</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>FINA 4931</t>
-        </is>
-      </c>
-      <c r="D22" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22" t="b">
-        <v>1</v>
-      </c>
-      <c r="F22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_2</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>FINA 4953</t>
-        </is>
-      </c>
-      <c r="D23" t="b">
-        <v>0</v>
-      </c>
-      <c r="E23" t="b">
-        <v>1</v>
-      </c>
-      <c r="F23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_2</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>FINA 4986</t>
-        </is>
-      </c>
-      <c r="D24" t="b">
-        <v>0</v>
-      </c>
-      <c r="E24" t="b">
-        <v>1</v>
-      </c>
-      <c r="F24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_2</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>FINA 4989</t>
-        </is>
-      </c>
-      <c r="D25" t="b">
-        <v>0</v>
-      </c>
-      <c r="E25" t="b">
-        <v>1</v>
-      </c>
-      <c r="F25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_1</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>FINA 3002</t>
-        </is>
-      </c>
-      <c r="D26" t="b">
-        <v>0</v>
-      </c>
-      <c r="E26" t="b">
-        <v>1</v>
-      </c>
-      <c r="F26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_1</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>FINA 4002</t>
-        </is>
-      </c>
-      <c r="D27" t="b">
-        <v>0</v>
-      </c>
-      <c r="E27" t="b">
-        <v>1</v>
-      </c>
-      <c r="F27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_1</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>FINA 4020</t>
-        </is>
-      </c>
-      <c r="D28" t="b">
-        <v>0</v>
-      </c>
-      <c r="E28" t="b">
-        <v>1</v>
-      </c>
-      <c r="F28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_1</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>FINA 4023</t>
-        </is>
-      </c>
-      <c r="D29" t="b">
-        <v>0</v>
-      </c>
-      <c r="E29" t="b">
-        <v>1</v>
-      </c>
-      <c r="F29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_1</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>FINA 4040</t>
-        </is>
-      </c>
-      <c r="D30" t="b">
-        <v>0</v>
-      </c>
-      <c r="E30" t="b">
-        <v>1</v>
-      </c>
-      <c r="F30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_1</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>FINA 4050</t>
-        </is>
-      </c>
-      <c r="D31" t="b">
-        <v>0</v>
-      </c>
-      <c r="E31" t="b">
-        <v>1</v>
-      </c>
-      <c r="F31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_1</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>FINA 4060</t>
-        </is>
-      </c>
-      <c r="D32" t="b">
-        <v>0</v>
-      </c>
-      <c r="E32" t="b">
-        <v>1</v>
-      </c>
-      <c r="F32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_1</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>FINA 4065</t>
-        </is>
-      </c>
-      <c r="D33" t="b">
-        <v>0</v>
-      </c>
-      <c r="E33" t="b">
-        <v>1</v>
-      </c>
-      <c r="F33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_1</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>FINA 4075</t>
-        </is>
-      </c>
-      <c r="D34" t="b">
-        <v>0</v>
-      </c>
-      <c r="E34" t="b">
-        <v>1</v>
-      </c>
-      <c r="F34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_1</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>FINA 4081</t>
-        </is>
-      </c>
-      <c r="D35" t="b">
-        <v>0</v>
-      </c>
-      <c r="E35" t="b">
-        <v>1</v>
-      </c>
-      <c r="F35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_1</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>FINA 4082</t>
-        </is>
-      </c>
-      <c r="D36" t="b">
-        <v>0</v>
-      </c>
-      <c r="E36" t="b">
-        <v>1</v>
-      </c>
-      <c r="F36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_1</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>FINA 4084</t>
-        </is>
-      </c>
-      <c r="D37" t="b">
-        <v>0</v>
-      </c>
-      <c r="E37" t="b">
-        <v>1</v>
-      </c>
-      <c r="F37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_1</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>FINA 4085</t>
-        </is>
-      </c>
-      <c r="D38" t="b">
-        <v>0</v>
-      </c>
-      <c r="E38" t="b">
-        <v>1</v>
-      </c>
-      <c r="F38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_1</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>FINA 4210</t>
-        </is>
-      </c>
-      <c r="D39" t="b">
-        <v>0</v>
-      </c>
-      <c r="E39" t="b">
-        <v>1</v>
-      </c>
-      <c r="F39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_1</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>FINA 4211</t>
-        </is>
-      </c>
-      <c r="D40" t="b">
-        <v>0</v>
-      </c>
-      <c r="E40" t="b">
-        <v>1</v>
-      </c>
-      <c r="F40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_1</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>FINA 4212</t>
-        </is>
-      </c>
-      <c r="D41" t="b">
-        <v>0</v>
-      </c>
-      <c r="E41" t="b">
-        <v>1</v>
-      </c>
-      <c r="F41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_1</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>FINA 4931</t>
-        </is>
-      </c>
-      <c r="D42" t="b">
-        <v>0</v>
-      </c>
-      <c r="E42" t="b">
-        <v>1</v>
-      </c>
-      <c r="F42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>BUS_ELEC_4</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>ACCO 1030</t>
-        </is>
-      </c>
-      <c r="D43" t="b">
-        <v>0</v>
-      </c>
-      <c r="E43" t="b">
-        <v>1</v>
-      </c>
-      <c r="F43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>BUS_ELEC_4</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>ACCO 1031</t>
-        </is>
-      </c>
-      <c r="D44" t="b">
-        <v>0</v>
-      </c>
-      <c r="E44" t="b">
-        <v>1</v>
-      </c>
-      <c r="F44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>BUS_ELEC_4</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>BUAD 1001</t>
-        </is>
-      </c>
-      <c r="D45" t="b">
-        <v>0</v>
-      </c>
-      <c r="E45" t="b">
-        <v>1</v>
-      </c>
-      <c r="F45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>BUS_ELEC_4</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>BUAD 1560</t>
-        </is>
-      </c>
-      <c r="D46" t="b">
-        <v>0</v>
-      </c>
-      <c r="E46" t="b">
-        <v>1</v>
-      </c>
-      <c r="F46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>BUS_ELEC_4</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>BUAD 2001</t>
-        </is>
-      </c>
-      <c r="D47" t="b">
-        <v>0</v>
-      </c>
-      <c r="E47" t="b">
-        <v>1</v>
-      </c>
-      <c r="F47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>BUS_ELEC_4</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>ECON 1103</t>
-        </is>
-      </c>
-      <c r="D48" t="b">
-        <v>0</v>
-      </c>
-      <c r="E48" t="b">
-        <v>1</v>
-      </c>
-      <c r="F48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>BUS_ELEC_4</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>ECON 1104</t>
-        </is>
-      </c>
-      <c r="D49" t="b">
-        <v>0</v>
-      </c>
-      <c r="E49" t="b">
-        <v>1</v>
-      </c>
-      <c r="F49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>BUS_ELEC_4</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>FINA 3002</t>
-        </is>
-      </c>
-      <c r="D50" t="b">
-        <v>0</v>
-      </c>
-      <c r="E50" t="b">
-        <v>1</v>
-      </c>
-      <c r="F50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>BUS_ELEC_4</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>FINA 4002</t>
-        </is>
-      </c>
-      <c r="D51" t="b">
-        <v>0</v>
-      </c>
-      <c r="E51" t="b">
-        <v>1</v>
-      </c>
-      <c r="F51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>BUS_ELEC_4</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>FINA 4020</t>
-        </is>
-      </c>
-      <c r="D52" t="b">
-        <v>0</v>
-      </c>
-      <c r="E52" t="b">
-        <v>1</v>
-      </c>
-      <c r="F52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>BUS_ELEC_4</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>FINA 4023</t>
-        </is>
-      </c>
-      <c r="D53" t="b">
-        <v>0</v>
-      </c>
-      <c r="E53" t="b">
-        <v>1</v>
-      </c>
-      <c r="F53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>BUS_ELEC_4</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>FINA 4040</t>
-        </is>
-      </c>
-      <c r="D54" t="b">
-        <v>0</v>
-      </c>
-      <c r="E54" t="b">
-        <v>1</v>
-      </c>
-      <c r="F54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>BUS_ELEC_4</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>FINA 4050</t>
-        </is>
-      </c>
-      <c r="D55" t="b">
-        <v>0</v>
-      </c>
-      <c r="E55" t="b">
-        <v>1</v>
-      </c>
-      <c r="F55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>BUS_ELEC_4</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>FINA 4060</t>
-        </is>
-      </c>
-      <c r="D56" t="b">
-        <v>0</v>
-      </c>
-      <c r="E56" t="b">
-        <v>1</v>
-      </c>
-      <c r="F56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>BUS_ELEC_4</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>FINA 4065</t>
-        </is>
-      </c>
-      <c r="D57" t="b">
-        <v>0</v>
-      </c>
-      <c r="E57" t="b">
-        <v>1</v>
-      </c>
-      <c r="F57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>BUS_ELEC_4</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>FINA 4075</t>
-        </is>
-      </c>
-      <c r="D58" t="b">
-        <v>0</v>
-      </c>
-      <c r="E58" t="b">
-        <v>1</v>
-      </c>
-      <c r="F58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>BUS_ELEC_4</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>FINA 4081</t>
-        </is>
-      </c>
-      <c r="D59" t="b">
-        <v>0</v>
-      </c>
-      <c r="E59" t="b">
-        <v>1</v>
-      </c>
-      <c r="F59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>BUS_ELEC_4</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>FINA 4082</t>
-        </is>
-      </c>
-      <c r="D60" t="b">
-        <v>0</v>
-      </c>
-      <c r="E60" t="b">
-        <v>1</v>
-      </c>
-      <c r="F60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>BUS_ELEC_4</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>FINA 4084</t>
-        </is>
-      </c>
-      <c r="D61" t="b">
-        <v>0</v>
-      </c>
-      <c r="E61" t="b">
-        <v>1</v>
-      </c>
-      <c r="F61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>BUS_ELEC_4</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>FINA 4085</t>
-        </is>
-      </c>
-      <c r="D62" t="b">
-        <v>0</v>
-      </c>
-      <c r="E62" t="b">
-        <v>1</v>
-      </c>
-      <c r="F62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>BUS_ELEC_4</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>FINA 4191</t>
-        </is>
-      </c>
-      <c r="D63" t="b">
-        <v>0</v>
-      </c>
-      <c r="E63" t="b">
-        <v>1</v>
-      </c>
-      <c r="F63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>BUS_ELEC_4</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>FINA 4210</t>
-        </is>
-      </c>
-      <c r="D64" t="b">
-        <v>0</v>
-      </c>
-      <c r="E64" t="b">
-        <v>1</v>
-      </c>
-      <c r="F64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>BUS_ELEC_4</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>FINA 4211</t>
-        </is>
-      </c>
-      <c r="D65" t="b">
-        <v>0</v>
-      </c>
-      <c r="E65" t="b">
-        <v>1</v>
-      </c>
-      <c r="F65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>BUS_ELEC_4</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>FINA 4212</t>
-        </is>
-      </c>
-      <c r="D66" t="b">
-        <v>0</v>
-      </c>
-      <c r="E66" t="b">
-        <v>1</v>
-      </c>
-      <c r="F66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>BUS_ELEC_4</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>FINA 4931</t>
-        </is>
-      </c>
-      <c r="D67" t="b">
-        <v>0</v>
-      </c>
-      <c r="E67" t="b">
-        <v>1</v>
-      </c>
-      <c r="F67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>BUS_ELEC_4</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>FINA 4953</t>
-        </is>
-      </c>
-      <c r="D68" t="b">
-        <v>0</v>
-      </c>
-      <c r="E68" t="b">
-        <v>1</v>
-      </c>
-      <c r="F68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>BUS_ELEC_4</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>FINA 4986</t>
-        </is>
-      </c>
-      <c r="D69" t="b">
-        <v>0</v>
-      </c>
-      <c r="E69" t="b">
-        <v>1</v>
-      </c>
-      <c r="F69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>BUS_ELEC_4</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>FINA 4989</t>
-        </is>
-      </c>
-      <c r="D70" t="b">
-        <v>0</v>
-      </c>
-      <c r="E70" t="b">
-        <v>1</v>
-      </c>
-      <c r="F70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>CORE</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>FINA 3002</t>
-        </is>
-      </c>
-      <c r="D71" t="b">
-        <v>1</v>
-      </c>
-      <c r="E71" t="b">
-        <v>1</v>
-      </c>
-      <c r="F71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>CORE</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>FINA 4002</t>
-        </is>
-      </c>
-      <c r="D72" t="b">
-        <v>1</v>
-      </c>
-      <c r="E72" t="b">
-        <v>1</v>
-      </c>
-      <c r="F72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>CORE</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>FINA 4020</t>
-        </is>
-      </c>
-      <c r="D73" t="b">
-        <v>1</v>
-      </c>
-      <c r="E73" t="b">
-        <v>1</v>
-      </c>
-      <c r="F73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>CORE</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>FINA 4023</t>
-        </is>
-      </c>
-      <c r="D74" t="b">
-        <v>1</v>
-      </c>
-      <c r="E74" t="b">
-        <v>1</v>
-      </c>
-      <c r="F74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>CORE</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>FINA 4040</t>
-        </is>
-      </c>
-      <c r="D75" t="b">
-        <v>1</v>
-      </c>
-      <c r="E75" t="b">
-        <v>1</v>
-      </c>
-      <c r="F75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>CORE</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>FINA 4050</t>
-        </is>
-      </c>
-      <c r="D76" t="b">
-        <v>1</v>
-      </c>
-      <c r="E76" t="b">
-        <v>1</v>
-      </c>
-      <c r="F76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>CORE</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>FINA 4060</t>
-        </is>
-      </c>
-      <c r="D77" t="b">
-        <v>1</v>
-      </c>
-      <c r="E77" t="b">
-        <v>1</v>
-      </c>
-      <c r="F77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>CORE</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>FINA 4065</t>
-        </is>
-      </c>
-      <c r="D78" t="b">
-        <v>1</v>
-      </c>
-      <c r="E78" t="b">
-        <v>1</v>
-      </c>
-      <c r="F78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>CORE</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>FINA 4075</t>
-        </is>
-      </c>
-      <c r="D79" t="b">
-        <v>1</v>
-      </c>
-      <c r="E79" t="b">
-        <v>1</v>
-      </c>
-      <c r="F79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>CORE</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>FINA 4081</t>
-        </is>
-      </c>
-      <c r="D80" t="b">
-        <v>1</v>
-      </c>
-      <c r="E80" t="b">
-        <v>1</v>
-      </c>
-      <c r="F80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>CORE</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>FINA 4082</t>
-        </is>
-      </c>
-      <c r="D81" t="b">
-        <v>1</v>
-      </c>
-      <c r="E81" t="b">
-        <v>1</v>
-      </c>
-      <c r="F81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>CORE</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>FINA 4084</t>
-        </is>
-      </c>
-      <c r="D82" t="b">
-        <v>1</v>
-      </c>
-      <c r="E82" t="b">
-        <v>1</v>
-      </c>
-      <c r="F82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>CORE</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>FINA 4085</t>
-        </is>
-      </c>
-      <c r="D83" t="b">
-        <v>1</v>
-      </c>
-      <c r="E83" t="b">
-        <v>1</v>
-      </c>
-      <c r="F83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>CORE</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>FINA 4191</t>
-        </is>
-      </c>
-      <c r="D84" t="b">
-        <v>1</v>
-      </c>
-      <c r="E84" t="b">
-        <v>1</v>
-      </c>
-      <c r="F84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>CORE</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>FINA 4210</t>
-        </is>
-      </c>
-      <c r="D85" t="b">
-        <v>1</v>
-      </c>
-      <c r="E85" t="b">
-        <v>1</v>
-      </c>
-      <c r="F85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>CORE</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>FINA 4211</t>
-        </is>
-      </c>
-      <c r="D86" t="b">
-        <v>1</v>
-      </c>
-      <c r="E86" t="b">
-        <v>1</v>
-      </c>
-      <c r="F86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>CORE</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>FINA 4212</t>
-        </is>
-      </c>
-      <c r="D87" t="b">
-        <v>1</v>
-      </c>
-      <c r="E87" t="b">
-        <v>1</v>
-      </c>
-      <c r="F87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>CORE</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>FINA 4931</t>
-        </is>
-      </c>
-      <c r="D88" t="b">
-        <v>1</v>
-      </c>
-      <c r="E88" t="b">
-        <v>1</v>
-      </c>
-      <c r="F88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>CORE</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>FINA 4953</t>
-        </is>
-      </c>
-      <c r="D89" t="b">
-        <v>1</v>
-      </c>
-      <c r="E89" t="b">
-        <v>1</v>
-      </c>
-      <c r="F89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>CORE</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>FINA 4986</t>
-        </is>
-      </c>
-      <c r="D90" t="b">
-        <v>1</v>
-      </c>
-      <c r="E90" t="b">
-        <v>1</v>
-      </c>
-      <c r="F90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>FIN_MAJOR</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>CORE</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>FINA 4989</t>
-        </is>
-      </c>
-      <c r="D91" t="b">
-        <v>1</v>
-      </c>
-      <c r="E91" t="b">
-        <v>1</v>
-      </c>
-      <c r="F91" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/marquette_courses_full.xlsx
+++ b/marquette_courses_full.xlsx
@@ -12,6 +12,7 @@
     <sheet name="tracks" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="buckets" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="README" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="course_bucket" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -554,7 +555,6 @@
           <t>none</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
       <c r="H2" t="b">
         <v>1</v>
       </c>
@@ -574,7 +574,6 @@
           <t>high</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
           <t>none</t>
@@ -593,9 +592,6 @@
           <t>BUS_ELEC_4</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -624,7 +620,6 @@
           <t>ACCO 1030</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
       <c r="H3" t="b">
         <v>1</v>
       </c>
@@ -644,7 +639,6 @@
           <t>high</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
           <t>none</t>
@@ -663,9 +657,6 @@
           <t>BUS_ELEC_4</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -718,7 +709,6 @@
           <t>high</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
           <t>none</t>
@@ -737,9 +727,6 @@
           <t>BUS_ELEC_4</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -768,7 +755,6 @@
           <t>none</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
       <c r="H5" t="b">
         <v>1</v>
       </c>
@@ -788,7 +774,6 @@
           <t>high</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
           <t>none</t>
@@ -802,10 +787,6 @@
           <t>level_0</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -834,7 +815,6 @@
           <t>none</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
       <c r="H6" t="b">
         <v>1</v>
       </c>
@@ -854,7 +834,6 @@
           <t>high</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
           <t>none</t>
@@ -873,9 +852,6 @@
           <t>BUS_ELEC_4</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -904,7 +880,6 @@
           <t>ECON 1103</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
       <c r="H7" t="b">
         <v>1</v>
       </c>
@@ -924,7 +899,6 @@
           <t>high</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
           <t>none</t>
@@ -943,9 +917,6 @@
           <t>BUS_ELEC_4</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -998,7 +969,6 @@
           <t>high</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
           <t>none</t>
@@ -1012,10 +982,6 @@
           <t>level_0</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1068,7 +1034,6 @@
           <t>high</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
           <t>none</t>
@@ -1082,10 +1047,6 @@
           <t>level_0</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1138,7 +1099,6 @@
           <t>high</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
           <t>none</t>
@@ -1152,10 +1112,6 @@
           <t>level_1</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1208,7 +1164,6 @@
           <t>high</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
           <t>none</t>
@@ -1222,10 +1177,6 @@
           <t>level_1</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1254,7 +1205,6 @@
           <t>MATH 1400 or MATH 1450</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
       <c r="H12" t="b">
         <v>1</v>
       </c>
@@ -1274,7 +1224,6 @@
           <t>high</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
           <t>none</t>
@@ -1293,9 +1242,6 @@
           <t>BUS_ELEC_4</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1348,7 +1294,6 @@
           <t>low</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
           <t>BUAD 1560</t>
@@ -1367,9 +1312,6 @@
           <t>BUS_ELEC_4</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1422,7 +1364,6 @@
           <t>high</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
           <t>none</t>
@@ -1436,10 +1377,6 @@
           <t>level_0</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1492,7 +1429,6 @@
           <t>high</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
           <t>none</t>
@@ -1506,10 +1442,6 @@
           <t>level_1</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1585,9 +1517,6 @@
           <t>CORE</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1640,7 +1569,6 @@
           <t>high</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
           <t>none</t>
@@ -1726,7 +1654,6 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
           <t>none</t>
@@ -1745,9 +1672,6 @@
           <t>GENERAL_ELEC</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1800,7 +1724,6 @@
           <t>high</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
           <t>none</t>
@@ -1819,9 +1742,6 @@
           <t>GENERAL_ELEC</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1850,7 +1770,6 @@
           <t>ACCO 1031; FINA 3001</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
       <c r="H20" t="b">
         <v>1</v>
       </c>
@@ -1870,7 +1789,6 @@
           <t>high</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
           <t>none</t>
@@ -1889,9 +1807,6 @@
           <t>CORE</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1920,7 +1835,6 @@
           <t>FINA 3001</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
       <c r="H21" t="b">
         <v>1</v>
       </c>
@@ -1940,7 +1854,6 @@
           <t>high</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
           <t>none</t>
@@ -2002,7 +1915,6 @@
           <t>ACCO 1031; FINA 3001</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr"/>
       <c r="H22" t="b">
         <v>1</v>
       </c>
@@ -2022,7 +1934,6 @@
           <t>high</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
           <t>none</t>
@@ -2041,9 +1952,6 @@
           <t>CORE</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2072,7 +1980,6 @@
           <t>FINA 3001</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
       <c r="H23" t="b">
         <v>1</v>
       </c>
@@ -2092,7 +1999,6 @@
           <t>high</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
           <t>none</t>
@@ -2154,7 +2060,6 @@
           <t>FINA 3001</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
       <c r="H24" t="b">
         <v>1</v>
       </c>
@@ -2174,7 +2079,6 @@
           <t>low</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
           <t>none</t>
@@ -2236,7 +2140,6 @@
           <t>FINA 3001</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr"/>
       <c r="H25" t="b">
         <v>1</v>
       </c>
@@ -2256,7 +2159,6 @@
           <t>high</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
           <t>none</t>
@@ -2318,7 +2220,6 @@
           <t>FINA 3001</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr"/>
       <c r="H26" t="b">
         <v>1</v>
       </c>
@@ -2338,7 +2239,6 @@
           <t>high</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
           <t>none</t>
@@ -2400,7 +2300,6 @@
           <t>FINA 3001</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr"/>
       <c r="H27" t="b">
         <v>1</v>
       </c>
@@ -2420,7 +2319,6 @@
           <t>high</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
           <t>none</t>
@@ -2482,7 +2380,6 @@
           <t>FINA 3001</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
       <c r="H28" t="b">
         <v>1</v>
       </c>
@@ -2502,7 +2399,6 @@
           <t>high</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
           <t>none</t>
@@ -2564,7 +2460,6 @@
           <t>FINA 3001</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr"/>
       <c r="H29" t="b">
         <v>1</v>
       </c>
@@ -2584,7 +2479,6 @@
           <t>high</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
           <t>none</t>
@@ -2646,7 +2540,6 @@
           <t>FINA 3001; FINA 4001</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
       <c r="H30" t="b">
         <v>0</v>
       </c>
@@ -2666,7 +2559,6 @@
           <t>high</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
           <t>none</t>
@@ -2728,7 +2620,6 @@
           <t>FINA 3001</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr"/>
       <c r="H31" t="b">
         <v>1</v>
       </c>
@@ -2748,7 +2639,6 @@
           <t>high</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
           <t>none</t>
@@ -2810,7 +2700,6 @@
           <t>FINA 3001</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr"/>
       <c r="H32" t="b">
         <v>1</v>
       </c>
@@ -2830,7 +2719,6 @@
           <t>high</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
           <t>none</t>
@@ -2916,7 +2804,6 @@
           <t>high</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
           <t>none</t>
@@ -2978,7 +2865,6 @@
           <t>FINA 3001</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr"/>
       <c r="H34" t="b">
         <v>0</v>
       </c>
@@ -2998,7 +2884,6 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
           <t>none</t>
@@ -3017,9 +2902,6 @@
           <t>GENERAL_ELEC</t>
         </is>
       </c>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3048,7 +2930,6 @@
           <t>FINA 3001</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr"/>
       <c r="H35" t="b">
         <v>0</v>
       </c>
@@ -3068,7 +2949,6 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
           <t>none</t>
@@ -3087,9 +2967,6 @@
           <t>GENERAL_ELEC</t>
         </is>
       </c>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3118,7 +2995,6 @@
           <t>FINA 4001; FINA 4011; FINA 4020; FINA 4121; FINA 4122</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr"/>
       <c r="H36" t="b">
         <v>0</v>
       </c>
@@ -3138,7 +3014,6 @@
           <t>unknown</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
           <t>none</t>
@@ -3157,9 +3032,6 @@
           <t>GENERAL_ELEC</t>
         </is>
       </c>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3188,7 +3060,6 @@
           <t>FINA 3001</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr"/>
       <c r="H37" t="b">
         <v>1</v>
       </c>
@@ -3208,7 +3079,6 @@
           <t>high</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
           <t>none</t>
@@ -3237,7 +3107,6 @@
           <t>BUS_ELEC_4</t>
         </is>
       </c>
-      <c r="T37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3380,7 +3249,6 @@
           <t>high</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
           <t>none</t>
@@ -3442,7 +3310,6 @@
           <t>FINA 3002; FINA 4210</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr"/>
       <c r="H40" t="b">
         <v>0</v>
       </c>
@@ -3462,7 +3329,6 @@
           <t>high</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
           <t>none</t>
@@ -3524,7 +3390,6 @@
           <t>FINA 3001</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr"/>
       <c r="H41" t="b">
         <v>1</v>
       </c>
@@ -3544,7 +3409,6 @@
           <t>high</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
           <t>none</t>
@@ -3606,7 +3470,6 @@
           <t>FINA 3001</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr"/>
       <c r="H42" t="b">
         <v>0</v>
       </c>
@@ -3626,7 +3489,6 @@
           <t>low</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
           <t>none</t>
@@ -3655,7 +3517,6 @@
           <t>BUS_ELEC_4</t>
         </is>
       </c>
-      <c r="T42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3708,7 +3569,6 @@
           <t>high</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
           <t>none</t>
@@ -3737,7 +3597,6 @@
           <t>BUS_ELEC_4</t>
         </is>
       </c>
-      <c r="T43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3790,7 +3649,6 @@
           <t>high</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
           <t>none</t>
@@ -3819,7 +3677,6 @@
           <t>BUS_ELEC_4</t>
         </is>
       </c>
-      <c r="T44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3872,7 +3729,6 @@
           <t>high</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
           <t>none</t>
@@ -3891,9 +3747,6 @@
           <t>GENERAL_ELEC</t>
         </is>
       </c>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4367,8 +4220,6 @@
       <c r="E2" t="n">
         <v>6</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
       <c r="H2" t="b">
         <v>1</v>
       </c>
@@ -4395,7 +4246,6 @@
       <c r="E3" t="n">
         <v>2</v>
       </c>
-      <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
         <v>3000</v>
       </c>
@@ -4425,7 +4275,6 @@
       <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
         <v>3000</v>
       </c>
@@ -4455,8 +4304,6 @@
       <c r="E5" t="n">
         <v>4</v>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
       <c r="H5" t="b">
         <v>1</v>
       </c>
@@ -4480,9 +4327,6 @@
       <c r="D6" t="n">
         <v>99</v>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
       <c r="H6" t="b">
         <v>0</v>
       </c>
@@ -4593,4 +4437,1672 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C97"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>track_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>course_code</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>bucket_id</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ACCO 1030</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ACCO 1031</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>BUAD 1001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ECON 1103</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ECON 1104</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BUAD 1560</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>BUAD 2001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FINA 3001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>FINA 3002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>FINA 3002</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>FINA 3002</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FINA 3002</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>FINA 3370</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>GENERAL_ELEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>FINA 3986</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>GENERAL_ELEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>FINA 4001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>FINA 4002</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>FINA 4002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>FINA 4002</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>FINA 4002</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>FINA 4011</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>FINA 4020</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>FINA 4020</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>FINA 4020</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>FINA 4020</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>FINA 4023</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>FINA 4023</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>FINA 4023</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>FINA 4023</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>FINA 4040</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>FINA 4040</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>FINA 4040</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>FINA 4040</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>FINA 4050</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>FINA 4050</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>FINA 4050</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>FINA 4050</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>FINA 4060</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>FINA 4060</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>FINA 4060</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>FINA 4060</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>FINA 4065</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>FINA 4065</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>FINA 4065</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>FINA 4065</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>FINA 4075</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>FINA 4075</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>FINA 4075</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>FINA 4075</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>FINA 4081</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>FINA 4081</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>FINA 4081</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>FINA 4081</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>FINA 4082</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>FINA 4082</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>FINA 4082</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>FINA 4082</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>FINA 4084</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>FINA 4084</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>FINA 4084</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>FINA 4084</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>FINA 4085</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>FINA 4085</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>FINA 4085</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>FINA 4085</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>FINA 4121</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>GENERAL_ELEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>FINA 4122</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>GENERAL_ELEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>FINA 4123</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>GENERAL_ELEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>FINA 4191</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>FINA 4191</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>FINA 4191</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>FINA 4210</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>FINA 4210</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>FINA 4210</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>FINA 4210</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>FINA 4211</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>FINA 4211</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>FINA 4211</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>FINA 4211</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>FINA 4212</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>FINA 4212</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>FINA 4212</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>FINA 4212</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>FINA 4931</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>FINA 4931</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>FINA 4931</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_1</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>FINA 4931</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>FINA 4953</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>FINA 4953</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>FINA 4953</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>FINA 4986</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>FINA 4986</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>FINA 4986</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>FINA 4989</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>FINA 4989</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>FIN_CHOOSE_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>FINA 4989</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>BUS_ELEC_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>FINA 4995</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>GENERAL_ELEC</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/marquette_courses_full.xlsx
+++ b/marquette_courses_full.xlsx
@@ -4148,7 +4148,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4197,6 +4197,11 @@
           <t>allow_double_count</t>
         </is>
       </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4223,6 +4228,11 @@
       <c r="H2" t="b">
         <v>1</v>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>core</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4251,6 +4261,11 @@
       </c>
       <c r="H3" t="b">
         <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>elective</t>
+        </is>
       </c>
     </row>
     <row r="4">

--- a/marquette_courses_full.xlsx
+++ b/marquette_courses_full.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T45"/>
+  <dimension ref="A1:T65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3745,6 +3745,1006 @@
       <c r="Q45" t="inlineStr">
         <is>
           <t>GENERAL_ELEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>REAL 3001</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Introduction to Commercial Real Estate</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>3</v>
+      </c>
+      <c r="D46" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ECON 1103; ACCO 1030</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>ECON 1103;ACCO 1030</t>
+        </is>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>2025 Fall; 2025 Summer; 2025 Spring; 2024 Fall</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>REAL 4061</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Real Estate Modeling</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>3</v>
+      </c>
+      <c r="D47" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>REAL 3001 or REAL 4002 or FINA 4002</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>REAL 3001 or FINA 4002</t>
+        </is>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="b">
+        <v>1</v>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>2025 Spring; 2024 Spring; 2023 Spring; 2022 Spring</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>ACCO 4040</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>International Accounting</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>3</v>
+      </c>
+      <c r="D48" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ACCO 4020 (may be concurrent)</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>ACCO 4020</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>may_be_concurrent</t>
+        </is>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>2025 Fall; 2024 Fall; 2023 Fall; 2023 Spring</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>ECON 4040</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>International Economics</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>3</v>
+      </c>
+      <c r="D49" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ECON 1103; ECON 1104</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>ECON 1103;ECON 1104</t>
+        </is>
+      </c>
+      <c r="H49" t="b">
+        <v>1</v>
+      </c>
+      <c r="I49" t="b">
+        <v>1</v>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>2025 Fall; 2024 Spring; 2023 Spring; 2021 Fall</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>ECON 4044</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Global Integration of Financial Sectors</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>3</v>
+      </c>
+      <c r="D50" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>ECON 1103; ECON 1104</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>ECON 1103;ECON 1104</t>
+        </is>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>2018 Fall; 2018 Spring; 2017 Spring; 2016 Fall</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Not offered since 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>FINAI 4931</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Topics in Finance-International</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>3</v>
+      </c>
+      <c r="D51" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>FINA 3001; OIE consent</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>FINA 3001</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>enrollment_requirement</t>
+        </is>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>2025 Spring; 2024 Spring</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Requires OIE consent</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>INBUI 4931</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Topics in International Business-International</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>3</v>
+      </c>
+      <c r="D52" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>OIE consent</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>enrollment_requirement</t>
+        </is>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" t="b">
+        <v>1</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>2025 Summer; 2025 Spring; 2024 Summer; 2024 Spring</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Requires OIE consent</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>MARK 4040</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>International Marketing</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>3</v>
+      </c>
+      <c r="D53" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>MARK 3001</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>MARK 3001</t>
+        </is>
+      </c>
+      <c r="H53" t="b">
+        <v>1</v>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>2025 Fall; 2025 Spring; 2024 Fall; 2024 Spring</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>ACCO 3001</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Intermediate Accounting I</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>3</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>ACCO 1031</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>ACCO 1031</t>
+        </is>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>2025 Fall; 2025 Spring; 2024 Fall; 2024 Spring</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>ACCO 4020</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Intermediate Accounting II</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>3</v>
+      </c>
+      <c r="D55" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>ACCO 3001</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>ACCO 3001</t>
+        </is>
+      </c>
+      <c r="H55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" t="b">
+        <v>0</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>2025 Fall; 2025 Spring; 2024 Fall; 2024 Spring</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>ACCO 4080</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Analysis of Financial Statements</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>3</v>
+      </c>
+      <c r="D56" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>ACCO 3001 or AIM/CBP admission</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>ACCO 3001</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>admitted_program</t>
+        </is>
+      </c>
+      <c r="H56" t="b">
+        <v>1</v>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" t="b">
+        <v>0</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>2025 Fall; 2025 Spring; 2024 Fall; 2024 Spring</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Also accepts AIM/CBP admission</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>ECON 4080</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Money, Banking and Monetary Policy</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>3</v>
+      </c>
+      <c r="D57" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>ECON 3004</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>ECON 3004</t>
+        </is>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" t="b">
+        <v>1</v>
+      </c>
+      <c r="J57" t="b">
+        <v>1</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>2024 Fall; 2023 Summer; 2023 Spring; 2022 Spring</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Irregular offering schedule</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>INSY 4051</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Business Applications Development</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>3</v>
+      </c>
+      <c r="D58" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>INSY 3001 or ACCO 4050</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>INSY 3001 or ACCO 4050</t>
+        </is>
+      </c>
+      <c r="H58" t="b">
+        <v>1</v>
+      </c>
+      <c r="I58" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" t="b">
+        <v>0</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>2025 Fall; 2025 Spring; 2024 Fall; 2024 Spring</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>INSY 4053</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Project Management</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>3</v>
+      </c>
+      <c r="D59" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>INSY 3001 or ACCO 4050 or instructor consent</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>INSY 3001 or ACCO 4050</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>instructor_consent</t>
+        </is>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" t="b">
+        <v>0</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>2025 Fall; 2025 Spring; 2024 Fall; 2024 Spring</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>MARK 4094</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Professional Selling</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>3</v>
+      </c>
+      <c r="D60" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>MARK 3001</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>MARK 3001</t>
+        </is>
+      </c>
+      <c r="H60" t="b">
+        <v>1</v>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" t="b">
+        <v>1</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>2025 Fall; 2025 Summer; 2025 Spring; 2024 Fall</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>REAL 4100</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Commercial Real Estate Development</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>3</v>
+      </c>
+      <c r="D61" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>REAL 3001 or REAL 4002 or FINA 4002</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>REAL 3001 or FINA 4002</t>
+        </is>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" t="b">
+        <v>0</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>2025 Spring; 2024 Spring; 2023 Spring; 2022 Spring</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>MARK 3001</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Introduction to Marketing</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>3</v>
+      </c>
+      <c r="D62" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Soph. stndg.; ECON 1001 or ECON 1103</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>ECON 1103</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>standing_requirement</t>
+        </is>
+      </c>
+      <c r="H62" t="b">
+        <v>1</v>
+      </c>
+      <c r="I62" t="b">
+        <v>1</v>
+      </c>
+      <c r="J62" t="b">
+        <v>1</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>2025 Fall; 2025 Summer; 2025 Spring; 2024 Fall</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>ECON 3004</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Intermediate Macroeconomic Analysis</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>3</v>
+      </c>
+      <c r="D63" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>ECON 1103; ECON 1104; MATH 1400 or equiv.</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>ECON 1103;ECON 1104;MATH 1400</t>
+        </is>
+      </c>
+      <c r="H63" t="b">
+        <v>1</v>
+      </c>
+      <c r="I63" t="b">
+        <v>1</v>
+      </c>
+      <c r="J63" t="b">
+        <v>0</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>2025 Fall; 2025 Spring; 2024 Fall; 2024 Spring</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>INSY 3001</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Introduction to Information Systems</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>3</v>
+      </c>
+      <c r="D64" t="n">
+        <v>3000</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Soph. stndg.</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>none</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>standing_requirement</t>
+        </is>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" t="b">
+        <v>1</v>
+      </c>
+      <c r="J64" t="b">
+        <v>1</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>2025 Fall; 2025 Summer; 2025 Spring; 2024 Fall</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>ACCO 4050</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Accounting Information Systems</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>3</v>
+      </c>
+      <c r="D65" t="n">
+        <v>4000</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>ACCO 1031</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>ACCO 1031</t>
+        </is>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" t="b">
+        <v>1</v>
+      </c>
+      <c r="J65" t="b">
+        <v>0</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>2025 Fall; 2025 Summer; 2024 Fall; 2024 Summer</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>high</t>
         </is>
       </c>
     </row>
@@ -4067,7 +5067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4091,6 +5091,16 @@
           <t>active</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>kind</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>parent_major_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -4106,6 +5116,12 @@
       <c r="C2" t="b">
         <v>1</v>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>major</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -4121,6 +5137,16 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>track</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -4135,6 +5161,16 @@
       </c>
       <c r="C4" t="b">
         <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>track</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>FIN_MAJOR</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -4148,7 +5184,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4344,6 +5380,125 @@
       </c>
       <c r="H6" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>FP_CONC</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FP_CORE</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Financial Planning Required</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>core</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CB_CONC</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CB_CORE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Commercial Banking Required</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>9</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>core</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CB_CONC</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CB_INTL</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>International Requirement</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>CB_CONC</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CB_ELEC</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Commercial Banking Elective</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>elective</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -4460,7 +5615,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6117,6 +7272,669 @@
         </is>
       </c>
     </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>FP_CONC</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>FINA 3001</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>FP_CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>FP_CONC</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>FINA 4001</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>FP_CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>FP_CONC</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>FINA 4011</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>FP_CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>FP_CONC</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>FINA 4020</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>FP_CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>FP_CONC</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>FINA 4121</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>FP_CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>FP_CONC</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>FINA 4122</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>FP_CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>FP_CONC</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>FINA 4123</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>FP_CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>CB_CONC</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>FINA 3001</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>CB_CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>CB_CONC</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>FINA 3002</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>CB_CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>CB_CONC</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>FINA 4001</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>CB_CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>CB_CONC</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>FINA 4011</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>CB_CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>CB_CONC</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>FINA 4050</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>CB_CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>CB_CONC</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>REAL 4061</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>CB_CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>CB_CONC</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>FINA 4210</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>CB_CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>CB_CONC</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>FINA 4211</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>CB_CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>CB_CONC</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>FINA 4212</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>CB_CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>CB_CONC</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>REAL 3001</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>CB_CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>CB_CONC</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>ACCO 4040</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>CB_INTL</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>CB_CONC</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>ECON 4040</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>CB_INTL</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>CB_CONC</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>ECON 4044</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>CB_INTL</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>CB_CONC</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>FINA 4040</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>CB_INTL</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>CB_CONC</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>FINAI 4931</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>CB_INTL</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>CB_CONC</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>INBUI 4931</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>CB_INTL</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>CB_CONC</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>MARK 4040</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>CB_INTL</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>CB_CONC</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>ACCO 3001</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>CB_ELEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>CB_CONC</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>ACCO 4020</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>CB_ELEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>CB_CONC</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>ACCO 4080</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>CB_ELEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>CB_CONC</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>FINA 4002</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>CB_ELEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>CB_CONC</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>FINA 4065</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>CB_ELEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>CB_CONC</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>FINA 4075</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>CB_ELEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>CB_CONC</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>FINA 4081</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>CB_ELEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>CB_CONC</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>FINA 4082</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>CB_ELEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>CB_CONC</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>FINA 4084</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>CB_ELEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>CB_CONC</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>ECON 4080</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>CB_ELEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>CB_CONC</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>INSY 4051</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>CB_ELEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>CB_CONC</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>INSY 4053</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>CB_ELEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>CB_CONC</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>MARK 4094</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>CB_ELEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>CB_CONC</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>REAL 4100</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>CB_ELEC</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>CB_CONC</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>REAL 4061</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>CB_ELEC</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/marquette_courses_full.xlsx
+++ b/marquette_courses_full.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T65"/>
+  <dimension ref="A1:S65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,25 +504,20 @@
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>prereq_tier</t>
+          <t>bucket1</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>bucket1</t>
+          <t>bucket2</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>bucket2</t>
+          <t>bucket3</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
-        <is>
-          <t>bucket3</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
         <is>
           <t>bucket4</t>
         </is>
@@ -584,11 +579,6 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>level_0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
           <t>BUS_ELEC_4</t>
         </is>
       </c>
@@ -649,11 +639,6 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>level_1</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
           <t>BUS_ELEC_4</t>
         </is>
       </c>
@@ -719,11 +704,6 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>level_0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
           <t>BUS_ELEC_4</t>
         </is>
       </c>
@@ -782,11 +762,6 @@
       <c r="O5" t="n">
         <v>0</v>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>level_0</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -844,11 +819,6 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>level_0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
           <t>BUS_ELEC_4</t>
         </is>
       </c>
@@ -909,11 +879,6 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>level_1</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
           <t>BUS_ELEC_4</t>
         </is>
       </c>
@@ -977,11 +942,6 @@
       <c r="O8" t="n">
         <v>0</v>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>level_0</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1042,11 +1002,6 @@
       <c r="O9" t="n">
         <v>0</v>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>level_0</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1107,11 +1062,6 @@
       <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>level_1</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1172,11 +1122,6 @@
       <c r="O11" t="n">
         <v>1</v>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>level_1</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1234,11 +1179,6 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>level_2</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
           <t>BUS_ELEC_4</t>
         </is>
       </c>
@@ -1304,11 +1244,6 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>level_1</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
           <t>BUS_ELEC_4</t>
         </is>
       </c>
@@ -1372,11 +1307,6 @@
       <c r="O14" t="n">
         <v>0</v>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>level_0</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1437,11 +1367,6 @@
       <c r="O15" t="n">
         <v>1</v>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>level_1</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1509,11 +1434,6 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>level_2</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
           <t>CORE</t>
         </is>
       </c>
@@ -1579,25 +1499,20 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>level_3</t>
+          <t>CORE</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>CORE</t>
+          <t>FIN_CHOOSE_2</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>FIN_CHOOSE_2</t>
+          <t>FIN_CHOOSE_1</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_1</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
         <is>
           <t>BUS_ELEC_4</t>
         </is>
@@ -1664,11 +1579,6 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>level_0</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
           <t>GENERAL_ELEC</t>
         </is>
       </c>
@@ -1734,11 +1644,6 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>level_3</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
           <t>GENERAL_ELEC</t>
         </is>
       </c>
@@ -1799,11 +1704,6 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>level_3</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
           <t>CORE</t>
         </is>
       </c>
@@ -1864,25 +1764,20 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>level_3</t>
+          <t>CORE</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>CORE</t>
+          <t>FIN_CHOOSE_2</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>FIN_CHOOSE_2</t>
+          <t>FIN_CHOOSE_1</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_1</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
         <is>
           <t>BUS_ELEC_4</t>
         </is>
@@ -1944,11 +1839,6 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>level_3</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
           <t>CORE</t>
         </is>
       </c>
@@ -2009,25 +1899,20 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>level_3</t>
+          <t>CORE</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>CORE</t>
+          <t>FIN_CHOOSE_2</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>FIN_CHOOSE_2</t>
+          <t>FIN_CHOOSE_1</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_1</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
         <is>
           <t>BUS_ELEC_4</t>
         </is>
@@ -2089,25 +1974,20 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>level_3</t>
+          <t>CORE</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>CORE</t>
+          <t>FIN_CHOOSE_2</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>FIN_CHOOSE_2</t>
+          <t>FIN_CHOOSE_1</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_1</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
         <is>
           <t>BUS_ELEC_4</t>
         </is>
@@ -2169,25 +2049,20 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>level_3</t>
+          <t>CORE</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>CORE</t>
+          <t>FIN_CHOOSE_2</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>FIN_CHOOSE_2</t>
+          <t>FIN_CHOOSE_1</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_1</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
         <is>
           <t>BUS_ELEC_4</t>
         </is>
@@ -2249,25 +2124,20 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>level_3</t>
+          <t>CORE</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>CORE</t>
+          <t>FIN_CHOOSE_2</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>FIN_CHOOSE_2</t>
+          <t>FIN_CHOOSE_1</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_1</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
         <is>
           <t>BUS_ELEC_4</t>
         </is>
@@ -2329,25 +2199,20 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>level_3</t>
+          <t>CORE</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>CORE</t>
+          <t>FIN_CHOOSE_2</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>FIN_CHOOSE_2</t>
+          <t>FIN_CHOOSE_1</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_1</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
         <is>
           <t>BUS_ELEC_4</t>
         </is>
@@ -2409,25 +2274,20 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>level_3</t>
+          <t>CORE</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>CORE</t>
+          <t>FIN_CHOOSE_2</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>FIN_CHOOSE_2</t>
+          <t>FIN_CHOOSE_1</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_1</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
         <is>
           <t>BUS_ELEC_4</t>
         </is>
@@ -2489,25 +2349,20 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>level_3</t>
+          <t>CORE</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>CORE</t>
+          <t>FIN_CHOOSE_2</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>FIN_CHOOSE_2</t>
+          <t>FIN_CHOOSE_1</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_1</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
         <is>
           <t>BUS_ELEC_4</t>
         </is>
@@ -2569,25 +2424,20 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>level_4</t>
+          <t>CORE</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>CORE</t>
+          <t>FIN_CHOOSE_2</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>FIN_CHOOSE_2</t>
+          <t>FIN_CHOOSE_1</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_1</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
         <is>
           <t>BUS_ELEC_4</t>
         </is>
@@ -2649,25 +2499,20 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>level_3</t>
+          <t>CORE</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>CORE</t>
+          <t>FIN_CHOOSE_2</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>FIN_CHOOSE_2</t>
+          <t>FIN_CHOOSE_1</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_1</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
         <is>
           <t>BUS_ELEC_4</t>
         </is>
@@ -2729,25 +2574,20 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>level_3</t>
+          <t>CORE</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>CORE</t>
+          <t>FIN_CHOOSE_2</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>FIN_CHOOSE_2</t>
+          <t>FIN_CHOOSE_1</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_1</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
         <is>
           <t>BUS_ELEC_4</t>
         </is>
@@ -2814,25 +2654,20 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>level_4</t>
+          <t>CORE</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>CORE</t>
+          <t>FIN_CHOOSE_2</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>FIN_CHOOSE_2</t>
+          <t>FIN_CHOOSE_1</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_1</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
         <is>
           <t>BUS_ELEC_4</t>
         </is>
@@ -2894,11 +2729,6 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>level_3</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
           <t>GENERAL_ELEC</t>
         </is>
       </c>
@@ -2959,11 +2789,6 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>level_3</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
           <t>GENERAL_ELEC</t>
         </is>
       </c>
@@ -3024,11 +2849,6 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>level_4</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
           <t>GENERAL_ELEC</t>
         </is>
       </c>
@@ -3089,20 +2909,15 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>level_3</t>
+          <t>CORE</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>CORE</t>
+          <t>FIN_CHOOSE_2</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_2</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
         <is>
           <t>BUS_ELEC_4</t>
         </is>
@@ -3174,25 +2989,20 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>level_3</t>
+          <t>CORE</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>CORE</t>
+          <t>FIN_CHOOSE_2</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>FIN_CHOOSE_2</t>
+          <t>FIN_CHOOSE_1</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_1</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
         <is>
           <t>BUS_ELEC_4</t>
         </is>
@@ -3259,25 +3069,20 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>level_4</t>
+          <t>CORE</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>CORE</t>
+          <t>FIN_CHOOSE_2</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>FIN_CHOOSE_2</t>
+          <t>FIN_CHOOSE_1</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_1</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
         <is>
           <t>BUS_ELEC_4</t>
         </is>
@@ -3339,25 +3144,20 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>level_4</t>
+          <t>CORE</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>CORE</t>
+          <t>FIN_CHOOSE_2</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>FIN_CHOOSE_2</t>
+          <t>FIN_CHOOSE_1</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_1</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr">
         <is>
           <t>BUS_ELEC_4</t>
         </is>
@@ -3419,25 +3219,20 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>level_3</t>
+          <t>CORE</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>CORE</t>
+          <t>FIN_CHOOSE_2</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>FIN_CHOOSE_2</t>
+          <t>FIN_CHOOSE_1</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_1</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr">
         <is>
           <t>BUS_ELEC_4</t>
         </is>
@@ -3499,20 +3294,15 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>level_3</t>
+          <t>CORE</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>CORE</t>
+          <t>FIN_CHOOSE_2</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_2</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
         <is>
           <t>BUS_ELEC_4</t>
         </is>
@@ -3579,20 +3369,15 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>level_4</t>
+          <t>CORE</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>CORE</t>
+          <t>FIN_CHOOSE_2</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_2</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
         <is>
           <t>BUS_ELEC_4</t>
         </is>
@@ -3659,20 +3444,15 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>level_3</t>
+          <t>CORE</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>CORE</t>
+          <t>FIN_CHOOSE_2</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
-        <is>
-          <t>FIN_CHOOSE_2</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
         <is>
           <t>BUS_ELEC_4</t>
         </is>
@@ -3739,11 +3519,6 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>level_0</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
           <t>GENERAL_ELEC</t>
         </is>
       </c>
@@ -3794,6 +3569,9 @@
           <t>high</t>
         </is>
       </c>
+      <c r="O46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3841,6 +3619,9 @@
           <t>high</t>
         </is>
       </c>
+      <c r="O47" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3893,6 +3674,9 @@
           <t>medium</t>
         </is>
       </c>
+      <c r="O48" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3940,6 +3724,9 @@
           <t>medium</t>
         </is>
       </c>
+      <c r="O49" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3992,6 +3779,9 @@
           <t>Not offered since 2018</t>
         </is>
       </c>
+      <c r="O50" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4049,6 +3839,9 @@
           <t>Requires OIE consent</t>
         </is>
       </c>
+      <c r="O51" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4106,6 +3899,9 @@
           <t>Requires OIE consent</t>
         </is>
       </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4153,6 +3949,9 @@
           <t>high</t>
         </is>
       </c>
+      <c r="O53" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4200,6 +3999,9 @@
           <t>high</t>
         </is>
       </c>
+      <c r="O54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4247,6 +4049,9 @@
           <t>high</t>
         </is>
       </c>
+      <c r="O55" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4304,6 +4109,9 @@
           <t>Also accepts AIM/CBP admission</t>
         </is>
       </c>
+      <c r="O56" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4356,6 +4164,9 @@
           <t>Irregular offering schedule</t>
         </is>
       </c>
+      <c r="O57" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4403,6 +4214,9 @@
           <t>high</t>
         </is>
       </c>
+      <c r="O58" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4455,6 +4269,9 @@
           <t>high</t>
         </is>
       </c>
+      <c r="O59" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4502,6 +4319,9 @@
           <t>high</t>
         </is>
       </c>
+      <c r="O60" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4549,6 +4369,9 @@
           <t>high</t>
         </is>
       </c>
+      <c r="O61" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4601,6 +4424,9 @@
           <t>high</t>
         </is>
       </c>
+      <c r="O62" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4648,6 +4474,9 @@
           <t>high</t>
         </is>
       </c>
+      <c r="O63" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4700,6 +4529,9 @@
           <t>high</t>
         </is>
       </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4746,6 +4578,9 @@
         <is>
           <t>high</t>
         </is>
+      </c>
+      <c r="O65" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -5121,7 +4956,6 @@
           <t>major</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">

--- a/marquette_courses_full.xlsx
+++ b/marquette_courses_full.xlsx
@@ -1087,7 +1087,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>MATH 1200</t>
+          <t>MATH 1400</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>ACCO 1031</t>
+          <t>ACCO 1031;ECON 1103</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">

--- a/marquette_courses_full.xlsx
+++ b/marquette_courses_full.xlsx
@@ -445,16 +445,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
@@ -625,24 +615,12 @@
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-    </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
           <t>courses: course_code, course_name, credits</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -650,8 +628,6 @@
           <t>programs: program_id, program_label, kind, parent_major_id, active</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -659,8 +635,6 @@
           <t>buckets: program_id, bucket_id, bucket_label, priority, track_required, active</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -668,8 +642,6 @@
           <t>sub_buckets: program_id, bucket_id, sub_bucket_id, sub_bucket_label, courses_required, priority, role</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -677,8 +649,6 @@
           <t>courses_all_buckets: program_id, sub_bucket_id, course_code</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -686,8 +656,6 @@
           <t>course_prereqs: course_code, prerequisites (hard), prereq_warnings (soft), concurrent_with, min_standing</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -695,8 +663,6 @@
           <t>course_offerings: course_code, term_code, offered (bool), confidence (high/medium/low/unknown)</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -704,8 +670,6 @@
           <t>course_equivalencies: equiv_group_id, course_code, notes [optional: program_scope]</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -713,18 +677,6 @@
           <t>double_count_policy: program_id, node_type_a, node_id_a, node_type_b, node_id_b, allow_double_count, reason</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -732,8 +684,6 @@
           <t>Resolution order (highest wins):</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -741,8 +691,6 @@
           <t xml:space="preserve">  1. sub_bucket &lt;-&gt; sub_bucket explicit row</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -750,8 +698,6 @@
           <t xml:space="preserve">  2. bucket &lt;-&gt; bucket explicit row (applies to all child sub-buckets)</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -759,13 +705,6 @@
           <t xml:space="preserve">  3. Hierarchy default: same parent bucket =&gt; DENY; different parent =&gt; ALLOW</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -773,8 +712,6 @@
           <t>Example: Allow FINA 4020 to satisfy both FIN_CHOOSE_1 and FIN_CHOOSE_2:</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -782,8 +719,6 @@
           <t xml:space="preserve">  program_id=FIN_MAJOR, node_type_a=sub_bucket, node_id_a=FIN_CHOOSE_1,</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -791,13 +726,6 @@
           <t xml:space="preserve">  node_type_b=sub_bucket, node_id_b=FIN_CHOOSE_2, allow_double_count=1</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -805,8 +733,6 @@
           <t>Example: Allow FIN_REQ &lt;-&gt; track buckets (at bucket level):</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -814,8 +740,6 @@
           <t xml:space="preserve">  program_id=FIN_MAJOR, node_type_a=bucket, node_id_a=FIN_REQ,</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -823,18 +747,6 @@
           <t xml:space="preserve">  node_type_b=bucket, node_id_b=CB_CORE, allow_double_count=1</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr"/>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -842,8 +754,6 @@
           <t>1. Add a row to 'courses' (course_code, course_name, credits, level).</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -851,8 +761,6 @@
           <t>2. Add a row to 'course_prereqs' if it has prerequisites.</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -860,8 +768,6 @@
           <t>3. Add a row to 'course_offerings' for each term it was/is offered.</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -869,8 +775,6 @@
           <t>4. Add rows to 'courses_all_buckets' mapping it to the appropriate sub-buckets.</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -878,8 +782,6 @@
           <t>5. Run: python scripts/validate_track.py --all</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -887,18 +789,6 @@
           <t>6. Run: python -m pytest tests/backend_tests/ -q</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr"/>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr"/>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -906,8 +796,6 @@
           <t>1. Add a row to 'programs': kind=track, parent_major_id=&lt;major&gt;.</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -915,8 +803,6 @@
           <t>2. Add rows to 'buckets' for new bucket families (if needed).</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -924,8 +810,6 @@
           <t>3. Add rows to 'sub_buckets' for each requirement unit.</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -933,8 +817,6 @@
           <t>4. Add rows to 'courses_all_buckets' mapping courses.</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -942,8 +824,6 @@
           <t>5. Add rows to 'double_count_policy' for any cross-bucket overlap.</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -951,8 +831,6 @@
           <t>6. Set active=0 until validated; flip to active=1 to publish.</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -960,8 +838,6 @@
           <t>7. Run: python scripts/validate_track.py --all</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -969,18 +845,6 @@
           <t>8. Run: python -m pytest tests/backend_tests/ -q</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr"/>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr"/>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -988,18 +852,6 @@
           <t>Same as track but kind=major, parent_major_id stays empty.</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr"/>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr"/>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1007,8 +859,6 @@
           <t>Validate all active programs:   python scripts/validate_track.py --all</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1016,8 +866,6 @@
           <t>Validate one program:           python scripts/validate_track.py --track FIN_MAJOR</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1025,8 +873,6 @@
           <t>Run all backend tests:          python -m pytest tests/backend_tests/ -q</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1034,18 +880,6 @@
           <t>Check for deprecated columns:   python scripts/migrate_schema.py --clean --dry-run --path marquette_courses_full.xlsx</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr"/>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr"/>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1053,8 +887,6 @@
           <t>[ ] python -m pytest -q  (all tests pass)</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1062,8 +894,6 @@
           <t>[ ] python scripts/validate_track.py --all  (all programs pass)</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1071,8 +901,6 @@
           <t>[ ] Manual smoke: /programs returns expected active options</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1080,18 +908,6 @@
           <t>[ ] Manual smoke: /recommend returns coherent results for baseline student</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr"/>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr"/>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1099,8 +915,6 @@
           <t>BCC_FOUNDATION  — courses_required=15 (includes LEAD courses)</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1108,8 +922,6 @@
           <t>BCC_ETHICS      — Ethics requirement</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1117,8 +929,6 @@
           <t>BCC_ENHANCE     — Enhancement electives</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1126,18 +936,6 @@
           <t>BCC_ANALYTICS   — Analytics requirement</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr"/>
-      <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr"/>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1145,8 +943,6 @@
           <t>- sub_buckets in the same parent bucket are SIBLING sub-buckets.</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1154,8 +950,6 @@
           <t>- Siblings do NOT double-count by default (same-family hierarchy deny).</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1163,8 +957,6 @@
           <t>- To allow overlap between siblings, add an explicit double_count_policy row.</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1172,8 +964,6 @@
           <t>- OR-option courses: model with course_equivalencies (equiv_group: constraint).</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1181,8 +971,6 @@
           <t>- Restriction language (major-only, consent): use prereq_soft column in course_prereqs.</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1190,8 +978,6 @@
           <t>- offering_confidence: high=taught every year, medium=occasional, low=rare, unknown=unclear.</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1269,7 +1055,6 @@
       <c r="E2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -1296,7 +1081,6 @@
       <c r="E3" t="b">
         <v>1</v>
       </c>
-      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -1323,7 +1107,6 @@
       <c r="E4" t="b">
         <v>1</v>
       </c>
-      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -1412,7 +1195,6 @@
       <c r="E7" t="b">
         <v>1</v>
       </c>
-      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -1439,7 +1221,6 @@
       <c r="E8" t="b">
         <v>1</v>
       </c>
-      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -1466,7 +1247,6 @@
       <c r="E9" t="b">
         <v>1</v>
       </c>
-      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -1493,7 +1273,6 @@
       <c r="E10" t="b">
         <v>1</v>
       </c>
-      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -1520,7 +1299,6 @@
       <c r="E11" t="b">
         <v>1</v>
       </c>
-      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -1547,7 +1325,6 @@
       <c r="E12" t="b">
         <v>1</v>
       </c>
-      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -1574,7 +1351,6 @@
       <c r="E13" t="b">
         <v>1</v>
       </c>
-      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -1601,7 +1377,6 @@
       <c r="E14" t="b">
         <v>1</v>
       </c>
-      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -1628,7 +1403,6 @@
       <c r="E15" t="b">
         <v>1</v>
       </c>
-      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -1686,7 +1460,6 @@
       <c r="E17" t="b">
         <v>1</v>
       </c>
-      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -1713,7 +1486,6 @@
       <c r="E18" t="b">
         <v>1</v>
       </c>
-      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -1771,7 +1543,6 @@
       <c r="E20" t="b">
         <v>1</v>
       </c>
-      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -1953,7 +1724,6 @@
       <c r="E26" t="b">
         <v>1</v>
       </c>
-      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -1980,7 +1750,6 @@
       <c r="E27" t="b">
         <v>1</v>
       </c>
-      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -2007,7 +1776,6 @@
       <c r="E28" t="b">
         <v>1</v>
       </c>
-      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -2034,7 +1802,6 @@
       <c r="E29" t="b">
         <v>1</v>
       </c>
-      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -2061,7 +1828,6 @@
       <c r="E30" t="b">
         <v>1</v>
       </c>
-      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -2088,7 +1854,6 @@
       <c r="E31" t="b">
         <v>1</v>
       </c>
-      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -2115,7 +1880,6 @@
       <c r="E32" t="b">
         <v>1</v>
       </c>
-      <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -2142,7 +1906,6 @@
       <c r="E33" t="b">
         <v>1</v>
       </c>
-      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -2169,7 +1932,6 @@
       <c r="E34" t="b">
         <v>1</v>
       </c>
-      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -2196,7 +1958,6 @@
       <c r="E35" t="b">
         <v>1</v>
       </c>
-      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -2254,7 +2015,6 @@
       <c r="E37" t="b">
         <v>1</v>
       </c>
-      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -2281,7 +2041,6 @@
       <c r="E38" t="b">
         <v>1</v>
       </c>
-      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -2339,7 +2098,6 @@
       <c r="E40" t="b">
         <v>1</v>
       </c>
-      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -2366,7 +2124,6 @@
       <c r="E41" t="b">
         <v>1</v>
       </c>
-      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -2393,7 +2150,6 @@
       <c r="E42" t="b">
         <v>1</v>
       </c>
-      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -2420,7 +2176,6 @@
       <c r="E43" t="b">
         <v>1</v>
       </c>
-      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -2447,7 +2202,6 @@
       <c r="E44" t="b">
         <v>1</v>
       </c>
-      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -2474,7 +2228,6 @@
       <c r="E45" t="b">
         <v>1</v>
       </c>
-      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -2532,7 +2285,6 @@
       <c r="E47" t="b">
         <v>1</v>
       </c>
-      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -2559,7 +2311,6 @@
       <c r="E48" t="b">
         <v>1</v>
       </c>
-      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -2710,7 +2461,6 @@
       <c r="E53" t="b">
         <v>1</v>
       </c>
-      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -2737,8 +2487,6 @@
       <c r="E54" t="b">
         <v>1</v>
       </c>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2760,8 +2508,6 @@
       <c r="E55" t="b">
         <v>1</v>
       </c>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2783,7 +2529,6 @@
       <c r="E56" t="b">
         <v>1</v>
       </c>
-      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -2810,7 +2555,6 @@
       <c r="E57" t="b">
         <v>1</v>
       </c>
-      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -2837,7 +2581,6 @@
       <c r="E58" t="b">
         <v>1</v>
       </c>
-      <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -2864,7 +2607,6 @@
       <c r="E59" t="b">
         <v>1</v>
       </c>
-      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -2984,7 +2726,6 @@
       <c r="E63" t="b">
         <v>1</v>
       </c>
-      <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -3135,7 +2876,6 @@
       <c r="E68" t="b">
         <v>1</v>
       </c>
-      <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -3162,7 +2902,6 @@
       <c r="E69" t="b">
         <v>1</v>
       </c>
-      <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -3189,7 +2928,6 @@
       <c r="E70" t="b">
         <v>1</v>
       </c>
-      <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -3216,7 +2954,6 @@
       <c r="E71" t="b">
         <v>1</v>
       </c>
-      <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -3243,7 +2980,6 @@
       <c r="E72" t="b">
         <v>1</v>
       </c>
-      <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -3270,7 +3006,6 @@
       <c r="E73" t="b">
         <v>1</v>
       </c>
-      <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -3297,7 +3032,6 @@
       <c r="E74" t="b">
         <v>1</v>
       </c>
-      <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -3324,7 +3058,6 @@
       <c r="E75" t="b">
         <v>1</v>
       </c>
-      <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -3351,7 +3084,6 @@
       <c r="E76" t="b">
         <v>1</v>
       </c>
-      <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -3378,7 +3110,6 @@
       <c r="E77" t="b">
         <v>1</v>
       </c>
-      <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -3405,7 +3136,6 @@
       <c r="E78" t="b">
         <v>1</v>
       </c>
-      <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -3432,7 +3162,6 @@
       <c r="E79" t="b">
         <v>1</v>
       </c>
-      <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -3459,7 +3188,6 @@
       <c r="E80" t="b">
         <v>1</v>
       </c>
-      <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -3486,7 +3214,6 @@
       <c r="E81" t="b">
         <v>1</v>
       </c>
-      <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -3513,7 +3240,6 @@
       <c r="E82" t="b">
         <v>1</v>
       </c>
-      <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -3540,7 +3266,6 @@
       <c r="E83" t="b">
         <v>1</v>
       </c>
-      <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -3567,7 +3292,6 @@
       <c r="E84" t="b">
         <v>1</v>
       </c>
-      <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -3594,7 +3318,6 @@
       <c r="E85" t="b">
         <v>1</v>
       </c>
-      <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -3621,7 +3344,6 @@
       <c r="E86" t="b">
         <v>1</v>
       </c>
-      <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -3648,7 +3370,6 @@
       <c r="E87" t="b">
         <v>1</v>
       </c>
-      <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -3675,7 +3396,6 @@
       <c r="E88" t="b">
         <v>1</v>
       </c>
-      <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -3733,7 +3453,6 @@
       <c r="E90" t="b">
         <v>1</v>
       </c>
-      <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -3760,7 +3479,6 @@
       <c r="E91" t="b">
         <v>1</v>
       </c>
-      <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -3787,7 +3505,6 @@
       <c r="E92" t="b">
         <v>1</v>
       </c>
-      <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -3814,7 +3531,6 @@
       <c r="E93" t="b">
         <v>1</v>
       </c>
-      <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -3841,7 +3557,6 @@
       <c r="E94" t="b">
         <v>1</v>
       </c>
-      <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -3868,7 +3583,6 @@
       <c r="E95" t="b">
         <v>1</v>
       </c>
-      <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -3895,7 +3609,6 @@
       <c r="E96" t="b">
         <v>1</v>
       </c>
-      <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -3953,7 +3666,6 @@
       <c r="E98" t="b">
         <v>1</v>
       </c>
-      <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -3980,7 +3692,6 @@
       <c r="E99" t="b">
         <v>1</v>
       </c>
-      <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -4007,7 +3718,6 @@
       <c r="E100" t="b">
         <v>1</v>
       </c>
-      <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -4065,7 +3775,6 @@
       <c r="E102" t="b">
         <v>1</v>
       </c>
-      <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -4123,7 +3832,6 @@
       <c r="E104" t="b">
         <v>1</v>
       </c>
-      <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -4150,7 +3858,6 @@
       <c r="E105" t="b">
         <v>1</v>
       </c>
-      <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -4177,7 +3884,6 @@
       <c r="E106" t="b">
         <v>1</v>
       </c>
-      <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -4204,7 +3910,6 @@
       <c r="E107" t="b">
         <v>1</v>
       </c>
-      <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -4231,7 +3936,6 @@
       <c r="E108" t="b">
         <v>1</v>
       </c>
-      <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -4258,7 +3962,6 @@
       <c r="E109" t="b">
         <v>1</v>
       </c>
-      <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -4285,7 +3988,6 @@
       <c r="E110" t="b">
         <v>1</v>
       </c>
-      <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -4312,7 +4014,6 @@
       <c r="E111" t="b">
         <v>1</v>
       </c>
-      <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -4463,7 +4164,6 @@
       <c r="E116" t="b">
         <v>1</v>
       </c>
-      <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -4490,7 +4190,6 @@
       <c r="E117" t="b">
         <v>1</v>
       </c>
-      <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -4517,7 +4216,6 @@
       <c r="E118" t="b">
         <v>1</v>
       </c>
-      <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -4544,7 +4242,6 @@
       <c r="E119" t="b">
         <v>1</v>
       </c>
-      <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -4571,7 +4268,6 @@
       <c r="E120" t="b">
         <v>1</v>
       </c>
-      <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -4660,7 +4356,6 @@
       <c r="E123" t="b">
         <v>1</v>
       </c>
-      <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -4687,7 +4382,6 @@
       <c r="E124" t="b">
         <v>1</v>
       </c>
-      <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -4714,7 +4408,6 @@
       <c r="E125" t="b">
         <v>1</v>
       </c>
-      <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -4741,7 +4434,6 @@
       <c r="E126" t="b">
         <v>1</v>
       </c>
-      <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -4768,7 +4460,6 @@
       <c r="E127" t="b">
         <v>1</v>
       </c>
-      <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -4826,7 +4517,6 @@
       <c r="E129" t="b">
         <v>1</v>
       </c>
-      <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -4853,8 +4543,6 @@
       <c r="E130" t="b">
         <v>1</v>
       </c>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -4876,8 +4564,6 @@
       <c r="E131" t="b">
         <v>1</v>
       </c>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -4899,8 +4585,6 @@
       <c r="E132" t="b">
         <v>1</v>
       </c>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4922,7 +4606,6 @@
       <c r="E133" t="b">
         <v>1</v>
       </c>
-      <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -4980,7 +4663,6 @@
       <c r="E135" t="b">
         <v>1</v>
       </c>
-      <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -5007,7 +4689,6 @@
       <c r="E136" t="b">
         <v>1</v>
       </c>
-      <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -5034,7 +4715,6 @@
       <c r="E137" t="b">
         <v>1</v>
       </c>
-      <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -5061,7 +4741,6 @@
       <c r="E138" t="b">
         <v>1</v>
       </c>
-      <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -5088,7 +4767,6 @@
       <c r="E139" t="b">
         <v>1</v>
       </c>
-      <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -5115,7 +4793,6 @@
       <c r="E140" t="b">
         <v>1</v>
       </c>
-      <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -5142,7 +4819,6 @@
       <c r="E141" t="b">
         <v>1</v>
       </c>
-      <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -5169,7 +4845,6 @@
       <c r="E142" t="b">
         <v>1</v>
       </c>
-      <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -5196,7 +4871,6 @@
       <c r="E143" t="b">
         <v>1</v>
       </c>
-      <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -5223,7 +4897,6 @@
       <c r="E144" t="b">
         <v>1</v>
       </c>
-      <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -5250,7 +4923,6 @@
       <c r="E145" t="b">
         <v>1</v>
       </c>
-      <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -5277,7 +4949,6 @@
       <c r="E146" t="b">
         <v>1</v>
       </c>
-      <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -5304,7 +4975,6 @@
       <c r="E147" t="b">
         <v>1</v>
       </c>
-      <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -5331,7 +5001,6 @@
       <c r="E148" t="b">
         <v>1</v>
       </c>
-      <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -5358,7 +5027,6 @@
       <c r="E149" t="b">
         <v>1</v>
       </c>
-      <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -5478,7 +5146,6 @@
       <c r="E153" t="b">
         <v>1</v>
       </c>
-      <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -5505,8 +5172,6 @@
       <c r="E154" t="b">
         <v>1</v>
       </c>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -5528,7 +5193,6 @@
       <c r="E155" t="b">
         <v>1</v>
       </c>
-      <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -5555,7 +5219,6 @@
       <c r="E156" t="b">
         <v>1</v>
       </c>
-      <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -5582,7 +5245,6 @@
       <c r="E157" t="b">
         <v>1</v>
       </c>
-      <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -5702,7 +5364,6 @@
       <c r="E161" t="b">
         <v>1</v>
       </c>
-      <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -5729,7 +5390,6 @@
       <c r="E162" t="b">
         <v>1</v>
       </c>
-      <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -5756,7 +5416,6 @@
       <c r="E163" t="b">
         <v>1</v>
       </c>
-      <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -5783,7 +5442,6 @@
       <c r="E164" t="b">
         <v>1</v>
       </c>
-      <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -5810,7 +5468,6 @@
       <c r="E165" t="b">
         <v>1</v>
       </c>
-      <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr">
         <is>
           <t>biz_elective</t>
@@ -6059,7 +5716,6 @@
           <t>Placeholder metadata from requirement list; full catalog details pending.</t>
         </is>
       </c>
-      <c r="G173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -6081,8 +5737,6 @@
       <c r="E174" t="b">
         <v>1</v>
       </c>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -6104,8 +5758,6 @@
       <c r="E175" t="b">
         <v>1</v>
       </c>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -6127,8 +5779,6 @@
       <c r="E176" t="b">
         <v>1</v>
       </c>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -6150,8 +5800,6 @@
       <c r="E177" t="b">
         <v>1</v>
       </c>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -6173,8 +5821,6 @@
       <c r="E178" t="b">
         <v>1</v>
       </c>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -6196,8 +5842,6 @@
       <c r="E179" t="b">
         <v>1</v>
       </c>
-      <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -6219,8 +5863,6 @@
       <c r="E180" t="b">
         <v>1</v>
       </c>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -6242,8 +5884,6 @@
       <c r="E181" t="b">
         <v>1</v>
       </c>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -6265,8 +5905,6 @@
       <c r="E182" t="b">
         <v>1</v>
       </c>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -6288,8 +5926,6 @@
       <c r="E183" t="b">
         <v>1</v>
       </c>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -6311,8 +5947,6 @@
       <c r="E184" t="b">
         <v>1</v>
       </c>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -6334,8 +5968,6 @@
       <c r="E185" t="b">
         <v>1</v>
       </c>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -6357,8 +5989,6 @@
       <c r="E186" t="b">
         <v>1</v>
       </c>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -6380,8 +6010,6 @@
       <c r="E187" t="b">
         <v>1</v>
       </c>
-      <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -6403,8 +6031,6 @@
       <c r="E188" t="b">
         <v>1</v>
       </c>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -6426,8 +6052,6 @@
       <c r="E189" t="b">
         <v>1</v>
       </c>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -6449,8 +6073,6 @@
       <c r="E190" t="b">
         <v>1</v>
       </c>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -6472,8 +6094,6 @@
       <c r="E191" t="b">
         <v>1</v>
       </c>
-      <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -6495,8 +6115,6 @@
       <c r="E192" t="b">
         <v>1</v>
       </c>
-      <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -6518,8 +6136,6 @@
       <c r="E193" t="b">
         <v>1</v>
       </c>
-      <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -6541,8 +6157,6 @@
       <c r="E194" t="b">
         <v>1</v>
       </c>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -6564,8 +6178,6 @@
       <c r="E195" t="b">
         <v>1</v>
       </c>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -6587,8 +6199,6 @@
       <c r="E196" t="b">
         <v>1</v>
       </c>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -6610,8 +6220,6 @@
       <c r="E197" t="b">
         <v>1</v>
       </c>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -6633,8 +6241,6 @@
       <c r="E198" t="b">
         <v>1</v>
       </c>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -6644,7 +6250,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>ENTP 3080</t>
+          <t>Funding Strategies for Entrepreneurs</t>
         </is>
       </c>
       <c r="C199" t="n">
@@ -6658,7 +6264,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Added during non-5000 audit execution; verify catalog details.</t>
+          <t>Prerequisite: ENTP 3001. Last four terms offered: Fall 2025, Fall 2024, Fall 2023, Spring 2023.</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -6739,7 +6345,6 @@
           <t>major</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="b">
         <v>1</v>
       </c>
@@ -6834,7 +6439,6 @@
           <t>major</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="b">
         <v>1</v>
       </c>
@@ -6896,7 +6500,6 @@
           <t>major</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="b">
         <v>1</v>
       </c>
@@ -6925,7 +6528,6 @@
           <t>major</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="b">
         <v>1</v>
       </c>
@@ -7053,7 +6655,6 @@
           <t>major</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="b">
         <v>1</v>
       </c>
@@ -7082,7 +6683,6 @@
           <t>major</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="b">
         <v>1</v>
       </c>
@@ -7111,7 +6711,6 @@
           <t>major</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="b">
         <v>1</v>
       </c>
@@ -7140,7 +6739,6 @@
           <t>universal</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="b">
         <v>1</v>
       </c>
@@ -7169,7 +6767,6 @@
           <t>universal</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="b">
         <v>1</v>
       </c>
@@ -7267,9 +6864,6 @@
       <c r="E2" t="n">
         <v>3</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -7295,11 +6889,9 @@
       <c r="E3" t="n">
         <v>2</v>
       </c>
-      <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
         <v>3000</v>
       </c>
-      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7325,11 +6917,9 @@
       <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
         <v>3000</v>
       </c>
-      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7352,7 +6942,6 @@
           <t>credits_pool</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
         <v>12</v>
       </c>
@@ -7389,9 +6978,6 @@
       <c r="E6" t="n">
         <v>10</v>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7417,11 +7003,9 @@
       <c r="E7" t="n">
         <v>1</v>
       </c>
-      <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
         <v>3000</v>
       </c>
-      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7447,11 +7031,9 @@
       <c r="E8" t="n">
         <v>2</v>
       </c>
-      <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
         <v>3000</v>
       </c>
-      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7477,9 +7059,6 @@
       <c r="E9" t="n">
         <v>7</v>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7502,7 +7081,6 @@
           <t>credits_pool</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
         <v>9</v>
       </c>
@@ -7539,9 +7117,6 @@
       <c r="E11" t="n">
         <v>3</v>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7567,11 +7142,9 @@
       <c r="E12" t="n">
         <v>3</v>
       </c>
-      <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
         <v>3000</v>
       </c>
-      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7594,7 +7167,6 @@
           <t>credits_pool</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
         <v>12</v>
       </c>
@@ -7631,9 +7203,6 @@
       <c r="E14" t="n">
         <v>3</v>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -7659,11 +7228,9 @@
       <c r="E15" t="n">
         <v>2</v>
       </c>
-      <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
         <v>3000</v>
       </c>
-      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7689,11 +7256,9 @@
       <c r="E16" t="n">
         <v>1</v>
       </c>
-      <c r="F16" t="inlineStr"/>
       <c r="G16" t="n">
         <v>3000</v>
       </c>
-      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7716,7 +7281,6 @@
           <t>credits_pool</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
         <v>12</v>
       </c>
@@ -7753,9 +7317,6 @@
       <c r="E18" t="n">
         <v>5</v>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7781,11 +7342,9 @@
       <c r="E19" t="n">
         <v>1</v>
       </c>
-      <c r="F19" t="inlineStr"/>
       <c r="G19" t="n">
         <v>3000</v>
       </c>
-      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7808,7 +7367,6 @@
           <t>credits_pool</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
         <v>12</v>
       </c>
@@ -7845,9 +7403,6 @@
       <c r="E21" t="n">
         <v>9</v>
       </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -7873,11 +7428,9 @@
       <c r="E22" t="n">
         <v>1</v>
       </c>
-      <c r="F22" t="inlineStr"/>
       <c r="G22" t="n">
         <v>3000</v>
       </c>
-      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7900,7 +7453,6 @@
           <t>credits_pool</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
         <v>9</v>
       </c>
@@ -7937,9 +7489,6 @@
       <c r="E24" t="n">
         <v>6</v>
       </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7962,7 +7511,6 @@
           <t>credits_pool</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
         <v>15</v>
       </c>
@@ -7999,9 +7547,6 @@
       <c r="E26" t="n">
         <v>11</v>
       </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -8024,7 +7569,6 @@
           <t>credits_pool</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
         <v>15</v>
       </c>
@@ -8061,9 +7605,6 @@
       <c r="E28" t="n">
         <v>3</v>
       </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -8089,11 +7630,9 @@
       <c r="E29" t="n">
         <v>1</v>
       </c>
-      <c r="F29" t="inlineStr"/>
       <c r="G29" t="n">
         <v>3000</v>
       </c>
-      <c r="H29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8119,11 +7658,9 @@
       <c r="E30" t="n">
         <v>2</v>
       </c>
-      <c r="F30" t="inlineStr"/>
       <c r="G30" t="n">
         <v>3000</v>
       </c>
-      <c r="H30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8146,7 +7683,6 @@
           <t>credits_pool</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
         <v>15</v>
       </c>
@@ -8183,9 +7719,6 @@
       <c r="E32" t="n">
         <v>7</v>
       </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8211,11 +7744,9 @@
       <c r="E33" t="n">
         <v>2</v>
       </c>
-      <c r="F33" t="inlineStr"/>
       <c r="G33" t="n">
         <v>3000</v>
       </c>
-      <c r="H33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8238,7 +7769,6 @@
           <t>credits_pool</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
       <c r="F34" t="n">
         <v>6</v>
       </c>
@@ -8275,9 +7805,6 @@
       <c r="E35" t="n">
         <v>4</v>
       </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8303,11 +7830,9 @@
       <c r="E36" t="n">
         <v>2</v>
       </c>
-      <c r="F36" t="inlineStr"/>
       <c r="G36" t="n">
         <v>3000</v>
       </c>
-      <c r="H36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8330,7 +7855,6 @@
           <t>credits_pool</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
       <c r="F37" t="n">
         <v>12</v>
       </c>
@@ -8367,9 +7891,6 @@
       <c r="E38" t="n">
         <v>1</v>
       </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8395,9 +7916,6 @@
       <c r="E39" t="n">
         <v>1</v>
       </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8423,9 +7941,6 @@
       <c r="E40" t="n">
         <v>1</v>
       </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8451,9 +7966,6 @@
       <c r="E41" t="n">
         <v>18</v>
       </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8479,9 +7991,6 @@
       <c r="E42" t="n">
         <v>1</v>
       </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -8507,9 +8016,6 @@
       <c r="E43" t="n">
         <v>4</v>
       </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -8535,9 +8041,6 @@
       <c r="E44" t="n">
         <v>3</v>
       </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -8563,11 +8066,9 @@
       <c r="E45" t="n">
         <v>1</v>
       </c>
-      <c r="F45" t="inlineStr"/>
       <c r="G45" t="n">
         <v>3000</v>
       </c>
-      <c r="H45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -8593,11 +8094,9 @@
       <c r="E46" t="n">
         <v>1</v>
       </c>
-      <c r="F46" t="inlineStr"/>
       <c r="G46" t="n">
         <v>3000</v>
       </c>
-      <c r="H46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -8623,9 +8122,6 @@
       <c r="E47" t="n">
         <v>1</v>
       </c>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -8648,14 +8144,12 @@
           <t>credits_pool</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
       <c r="F48" t="n">
         <v>15</v>
       </c>
       <c r="G48" t="n">
         <v>3000</v>
       </c>
-      <c r="H48" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8714,7 +8208,6 @@
           <t>FINA 3001</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -8732,7 +8225,6 @@
           <t>FINA 4001</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -8750,7 +8242,6 @@
           <t>FINA 4011</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -8768,7 +8259,6 @@
           <t>FINA 3002</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -8786,7 +8276,6 @@
           <t>FINA 4002</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -8804,7 +8293,6 @@
           <t>FINA 4020</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -8822,7 +8310,6 @@
           <t>FINA 4023</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -8840,7 +8327,6 @@
           <t>FINA 4040</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8858,7 +8344,6 @@
           <t>FINA 4050</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8876,7 +8361,6 @@
           <t>FINA 4060</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8894,7 +8378,6 @@
           <t>FINA 4065</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8912,7 +8395,6 @@
           <t>FINA 4075</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8930,7 +8412,6 @@
           <t>FINA 4081</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8948,7 +8429,6 @@
           <t>FINA 4082</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8966,7 +8446,6 @@
           <t>FINA 4084</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8984,7 +8463,6 @@
           <t>FINA 4085</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -9002,7 +8480,6 @@
           <t>FINA 4191</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -9020,7 +8497,6 @@
           <t>FINA 4210</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -9038,7 +8514,6 @@
           <t>FINA 4211</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9056,7 +8531,6 @@
           <t>FINA 4212</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -9074,7 +8548,6 @@
           <t>FINA 4931</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9092,7 +8565,6 @@
           <t>FINA 4953</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -9110,7 +8582,6 @@
           <t>FINA 4986</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -9128,7 +8599,6 @@
           <t>FINA 4989</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -9146,7 +8616,6 @@
           <t>FINAI 4931</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -9164,7 +8633,6 @@
           <t>FINA 3002</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -9182,7 +8650,6 @@
           <t>FINA 4002</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -9200,7 +8667,6 @@
           <t>FINA 4020</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -9218,7 +8684,6 @@
           <t>FINA 4023</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -9236,7 +8701,6 @@
           <t>FINA 4040</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -9254,7 +8718,6 @@
           <t>FINA 4050</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -9272,7 +8735,6 @@
           <t>FINA 4060</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9290,7 +8752,6 @@
           <t>FINA 4065</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9308,7 +8769,6 @@
           <t>FINA 4075</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9326,7 +8786,6 @@
           <t>FINA 4081</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9344,7 +8803,6 @@
           <t>FINA 4082</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9362,7 +8820,6 @@
           <t>FINA 4084</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -9380,7 +8837,6 @@
           <t>FINA 4085</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -9398,7 +8854,6 @@
           <t>FINA 4210</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9416,7 +8871,6 @@
           <t>FINA 4211</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9434,7 +8888,6 @@
           <t>FINA 4212</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9452,7 +8905,6 @@
           <t>FINA 4931</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9470,7 +8922,6 @@
           <t>FINA 4953</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9488,7 +8939,6 @@
           <t>FINA 4986</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9506,7 +8956,6 @@
           <t>FINA 4989</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -9524,7 +8973,6 @@
           <t>FINAI 4931</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -9542,7 +8990,6 @@
           <t>ACCO 4080</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -9560,7 +9007,6 @@
           <t>AIM 4400</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -9578,7 +9024,6 @@
           <t>AIM 4440</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -9596,7 +9041,6 @@
           <t>ENTP 3080</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -9614,7 +9058,6 @@
           <t>FINA 3001</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -9632,7 +9075,6 @@
           <t>FINA 3002</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -9650,7 +9092,6 @@
           <t>FINA 4001</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -9668,7 +9109,6 @@
           <t>FINA 4011</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -9686,7 +9126,6 @@
           <t>FINA 4050</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -9704,7 +9143,6 @@
           <t>REAL 4061</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -9722,7 +9160,6 @@
           <t>FINA 4210</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -9740,7 +9177,6 @@
           <t>FINA 4211</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -9758,7 +9194,6 @@
           <t>FINA 4212</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -9776,7 +9211,6 @@
           <t>REAL 3001</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -9794,7 +9228,6 @@
           <t>ACCO 4040</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -9812,7 +9245,6 @@
           <t>ECON 4040</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -9830,7 +9262,6 @@
           <t>ECON 4044</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -9848,7 +9279,6 @@
           <t>FINA 4040</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -9866,7 +9296,6 @@
           <t>FINAI 4931</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -9884,7 +9313,6 @@
           <t>INBUI 4931</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -9902,7 +9330,6 @@
           <t>MARK 4040</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -9920,7 +9347,6 @@
           <t>ACCO 3001</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -9938,7 +9364,6 @@
           <t>ACCO 4020</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -9956,7 +9381,6 @@
           <t>ACCO 4080</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9974,7 +9398,6 @@
           <t>FINA 4002</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -9992,7 +9415,6 @@
           <t>FINA 4065</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -10010,7 +9432,6 @@
           <t>FINA 4075</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -10028,7 +9449,6 @@
           <t>FINA 4081</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -10046,7 +9466,6 @@
           <t>FINA 4082</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -10064,7 +9483,6 @@
           <t>FINA 4084</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -10082,7 +9500,6 @@
           <t>ECON 4080</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -10100,7 +9517,6 @@
           <t>INSY 4051</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -10118,7 +9534,6 @@
           <t>INSY 4053</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -10136,7 +9551,6 @@
           <t>MARK 4094</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -10154,7 +9568,6 @@
           <t>REAL 4100</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -10172,7 +9585,6 @@
           <t>REAL 4061</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -10190,7 +9602,6 @@
           <t>FINA 3001</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -10208,7 +9619,6 @@
           <t>FINA 4001</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -10226,7 +9636,6 @@
           <t>FINA 4011</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -10244,7 +9653,6 @@
           <t>FINA 4020</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -10262,7 +9670,6 @@
           <t>FINA 4121</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -10280,7 +9687,6 @@
           <t>FINA 4122</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -10298,7 +9704,6 @@
           <t>FINA 4123</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -10316,7 +9721,6 @@
           <t>HURE 3001</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -10334,7 +9738,6 @@
           <t>HURE 4030</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -10352,7 +9755,6 @@
           <t>HURE 4080</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -10370,7 +9772,6 @@
           <t>HURE 4003</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -10388,7 +9789,6 @@
           <t>HURE 4010</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -10406,7 +9806,6 @@
           <t>HURE 4060</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -10424,7 +9823,6 @@
           <t>HURE 4101</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -10442,7 +9840,6 @@
           <t>HURE 4140</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -10460,7 +9857,6 @@
           <t>HURE 4931</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -10478,7 +9874,6 @@
           <t>MANA 3034</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -10496,7 +9891,6 @@
           <t>MANA 3035</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -10514,7 +9908,6 @@
           <t>MANA 4010</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -10532,7 +9925,6 @@
           <t>HURE 3001</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -10550,7 +9942,6 @@
           <t>HURE 4030</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -10568,7 +9959,6 @@
           <t>HURE 4080</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -10586,7 +9976,6 @@
           <t>MANA 3034</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -10604,7 +9993,6 @@
           <t>MANA 3035</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -10622,7 +10010,6 @@
           <t>MANA 4010</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -10640,7 +10027,6 @@
           <t>HURE 4010</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -10658,7 +10044,6 @@
           <t>HURE 4060</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -10676,7 +10061,6 @@
           <t>HURE 4101</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -10694,7 +10078,6 @@
           <t>MANA 3002</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -10712,7 +10095,6 @@
           <t>CMST 4250</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -10730,7 +10112,6 @@
           <t>OSCM 3001</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -10748,7 +10129,6 @@
           <t>OSCM 4010</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -10766,7 +10146,6 @@
           <t>OSCM 4025</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -10784,7 +10163,6 @@
           <t>OSCM 4040</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -10802,7 +10180,6 @@
           <t>OSCM 4997</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -10820,7 +10197,6 @@
           <t>OSCM 4005</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -10838,7 +10214,6 @@
           <t>OSCM 4015</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -10856,7 +10231,6 @@
           <t>OSCM 4020</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -10874,7 +10248,6 @@
           <t>OSCM 4035</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -10892,7 +10265,6 @@
           <t>OSCM 4045</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -10910,7 +10282,6 @@
           <t>OSCM 4060</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -10928,7 +10299,6 @@
           <t>OSCM 4065</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -10946,7 +10316,6 @@
           <t>OSCM 4080</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -10964,7 +10333,6 @@
           <t>OSCM 4082</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -10982,7 +10350,6 @@
           <t>OSCM 4085</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -11000,7 +10367,6 @@
           <t>OSCM 4931</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -11018,7 +10384,6 @@
           <t>INSY 4053</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -11036,7 +10401,6 @@
           <t>MANA 3034</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -11054,7 +10418,6 @@
           <t>MARK 4085</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -11072,7 +10435,6 @@
           <t>ACCO 3001</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -11090,7 +10452,6 @@
           <t>ACCO 4080</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -11108,7 +10469,6 @@
           <t>AIM 4310</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -11126,7 +10486,6 @@
           <t>AIM 4320</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -11144,7 +10503,6 @@
           <t>AIM 4330</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -11162,7 +10520,6 @@
           <t>FINA 4065</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -11180,7 +10537,6 @@
           <t>FINA 4075</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -11198,7 +10554,6 @@
           <t>AIM 4470</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -11216,7 +10571,6 @@
           <t>AIM 4996</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -11234,7 +10588,6 @@
           <t>ACCO 4040</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -11252,7 +10605,6 @@
           <t>ECON 4040</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -11270,7 +10622,6 @@
           <t>ECON 4044</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -11288,7 +10639,6 @@
           <t>ECON 4045</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -11306,7 +10656,6 @@
           <t>ECON 4046</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -11324,7 +10673,6 @@
           <t>ECON 4080</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -11342,7 +10690,6 @@
           <t>FINA 4040</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -11360,7 +10707,6 @@
           <t>ACCOI 4931</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -11378,7 +10724,6 @@
           <t>FINAI 4931</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -11396,7 +10741,6 @@
           <t>INBUI 4931</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -11414,7 +10758,6 @@
           <t>FINA 4075</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -11432,7 +10775,6 @@
           <t>AIM 4410</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -11450,7 +10792,6 @@
           <t>AIM 4420</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -11468,7 +10809,6 @@
           <t>AIM 4430</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -11486,7 +10826,6 @@
           <t>AIM 4470</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -11504,7 +10843,6 @@
           <t>AIM 4996</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -11522,7 +10860,6 @@
           <t>ACCO 4080</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -11540,7 +10877,6 @@
           <t>AIM 4470</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -11558,7 +10894,6 @@
           <t>AIM 4310</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -11576,7 +10911,6 @@
           <t>AIM 4400</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -11594,7 +10928,6 @@
           <t>FINA 4210</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -11612,7 +10945,6 @@
           <t>FINA 4081</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -11630,7 +10962,6 @@
           <t>FINA 4023</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -11648,7 +10979,6 @@
           <t>FINA 4191</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -11666,7 +10996,6 @@
           <t>MARK 4094</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -11684,7 +11013,6 @@
           <t>FINA 4084</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -11702,7 +11030,6 @@
           <t>AIM 4996</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -11720,7 +11047,6 @@
           <t>BUAN 3065</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -11738,7 +11064,6 @@
           <t>BUAN 3066</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -11756,7 +11081,6 @@
           <t>INSY 4052</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -11774,7 +11098,6 @@
           <t>BUAN 4060</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -11792,7 +11115,6 @@
           <t>ACCO 4060</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -11810,7 +11132,6 @@
           <t>HURE 4060</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -11828,7 +11149,6 @@
           <t>MARK 4065</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -11846,7 +11166,6 @@
           <t>OSCM 4060</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -11864,7 +11183,6 @@
           <t>BUAN 4061</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -11882,7 +11200,6 @@
           <t>INSY 4054</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -11900,7 +11217,6 @@
           <t>ACCO 3001</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -11918,7 +11234,6 @@
           <t>ACCO 4000</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -11936,7 +11251,6 @@
           <t>ACCO 4010</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -11954,7 +11268,6 @@
           <t>ACCO 4020</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -11972,7 +11285,6 @@
           <t>ACCO 4030</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -11990,7 +11302,6 @@
           <t>ACCO 4170</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -12008,7 +11319,6 @@
           <t>BULA 4001</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -12026,7 +11336,6 @@
           <t>ACCO 4040</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -12044,7 +11353,6 @@
           <t>ACCO 4045</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -12062,7 +11370,6 @@
           <t>ACCO 4060</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -12080,7 +11387,6 @@
           <t>ACCO 4080</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -12098,7 +11404,6 @@
           <t>ACCO 4119</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -12116,7 +11421,6 @@
           <t>ACCO 4931</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -12134,7 +11438,6 @@
           <t>FINA 4075</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -12152,7 +11455,6 @@
           <t>INSY 3001</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -12170,7 +11472,6 @@
           <t>INSY 4051</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -12188,7 +11489,6 @@
           <t>INSY 4052</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -12206,7 +11506,6 @@
           <t>INSY 4158</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -12224,7 +11523,6 @@
           <t>INSY 4053</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -12242,7 +11540,6 @@
           <t>INSY 4054</t>
         </is>
       </c>
-      <c r="D198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -12260,7 +11557,6 @@
           <t>INSY 4055</t>
         </is>
       </c>
-      <c r="D199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -12278,7 +11574,6 @@
           <t>INSY 4056</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -12296,7 +11591,6 @@
           <t>INSY 4156</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -12314,7 +11608,6 @@
           <t>INSY 4931</t>
         </is>
       </c>
-      <c r="D202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -12332,7 +11625,6 @@
           <t>ACCO 4060</t>
         </is>
       </c>
-      <c r="D203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -12350,7 +11642,6 @@
           <t>AIM 4320</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -12368,7 +11659,6 @@
           <t>AIM 4420</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -12386,7 +11676,6 @@
           <t>BUAN 3065</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -12404,7 +11693,6 @@
           <t>ECON 4060</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -12422,7 +11710,6 @@
           <t>FINA 4050</t>
         </is>
       </c>
-      <c r="D208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -12440,7 +11727,6 @@
           <t>HURE 4060</t>
         </is>
       </c>
-      <c r="D209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -12458,7 +11744,6 @@
           <t>INSY 4052</t>
         </is>
       </c>
-      <c r="D210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -12476,7 +11761,6 @@
           <t>MARK 4060</t>
         </is>
       </c>
-      <c r="D211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -12494,7 +11778,6 @@
           <t>MARK 4065</t>
         </is>
       </c>
-      <c r="D212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -12512,7 +11795,6 @@
           <t>OSCM 4060</t>
         </is>
       </c>
-      <c r="D213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -12530,7 +11812,6 @@
           <t>REAL 4061</t>
         </is>
       </c>
-      <c r="D214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -12548,7 +11829,6 @@
           <t>REAL 4210</t>
         </is>
       </c>
-      <c r="D215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -12566,7 +11846,6 @@
           <t>ENTP 3001</t>
         </is>
       </c>
-      <c r="D216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -12584,7 +11863,6 @@
           <t>HURE 3001</t>
         </is>
       </c>
-      <c r="D217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -12602,7 +11880,6 @@
           <t>REAL 3001</t>
         </is>
       </c>
-      <c r="D218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -12620,7 +11897,6 @@
           <t>AIM 4470</t>
         </is>
       </c>
-      <c r="D219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -12638,7 +11914,6 @@
           <t>BULA 3001</t>
         </is>
       </c>
-      <c r="D220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -12656,7 +11931,6 @@
           <t>FINA 4085</t>
         </is>
       </c>
-      <c r="D221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -12674,7 +11948,6 @@
           <t>FINA 4191</t>
         </is>
       </c>
-      <c r="D222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -12692,7 +11965,6 @@
           <t>MANA 3002</t>
         </is>
       </c>
-      <c r="D223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -12710,7 +11982,6 @@
           <t>OSCM 4035</t>
         </is>
       </c>
-      <c r="D224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -12728,7 +11999,6 @@
           <t>PHIL 4330</t>
         </is>
       </c>
-      <c r="D225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -12746,7 +12016,6 @@
           <t>ACCO 1030</t>
         </is>
       </c>
-      <c r="D226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -12764,7 +12033,6 @@
           <t>ACCO 1031</t>
         </is>
       </c>
-      <c r="D227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -12782,7 +12050,6 @@
           <t>BUAD 1001</t>
         </is>
       </c>
-      <c r="D228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -12800,7 +12067,6 @@
           <t>BUAD 1560</t>
         </is>
       </c>
-      <c r="D229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -12818,7 +12084,6 @@
           <t>BUAD 2001</t>
         </is>
       </c>
-      <c r="D230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -12836,7 +12101,6 @@
           <t>CMST 2300</t>
         </is>
       </c>
-      <c r="D231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -12854,7 +12118,6 @@
           <t>ECON 1103</t>
         </is>
       </c>
-      <c r="D232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -12872,7 +12135,6 @@
           <t>ECON 1104</t>
         </is>
       </c>
-      <c r="D233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -12890,7 +12152,6 @@
           <t>FINA 3001</t>
         </is>
       </c>
-      <c r="D234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -12908,7 +12169,6 @@
           <t>INSY 3001</t>
         </is>
       </c>
-      <c r="D235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -12926,7 +12186,6 @@
           <t>LEAD 1050</t>
         </is>
       </c>
-      <c r="D236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -12944,7 +12203,6 @@
           <t>LEAD 2000</t>
         </is>
       </c>
-      <c r="D237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -12962,7 +12220,6 @@
           <t>LEAD 3000</t>
         </is>
       </c>
-      <c r="D238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -12980,7 +12237,6 @@
           <t>MANA 3001</t>
         </is>
       </c>
-      <c r="D239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -12998,7 +12254,6 @@
           <t>MANA 4101</t>
         </is>
       </c>
-      <c r="D240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -13016,7 +12271,6 @@
           <t>MARK 3001</t>
         </is>
       </c>
-      <c r="D241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -13034,7 +12288,6 @@
           <t>MATH 1400</t>
         </is>
       </c>
-      <c r="D242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -13052,7 +12305,6 @@
           <t>MATH 1450</t>
         </is>
       </c>
-      <c r="D243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -13070,7 +12322,6 @@
           <t>OSCM 3001</t>
         </is>
       </c>
-      <c r="D244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -13088,7 +12339,6 @@
           <t>ENGL 1001</t>
         </is>
       </c>
-      <c r="D245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -13106,7 +12356,6 @@
           <t>PHIL 1001</t>
         </is>
       </c>
-      <c r="D246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -13124,7 +12373,6 @@
           <t>THEO 1001</t>
         </is>
       </c>
-      <c r="D247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -13142,7 +12390,6 @@
           <t>CORE 1929</t>
         </is>
       </c>
-      <c r="D248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -13160,7 +12407,6 @@
           <t>ANTH 1001</t>
         </is>
       </c>
-      <c r="D249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -13178,7 +12424,6 @@
           <t>EDUC 1001</t>
         </is>
       </c>
-      <c r="D250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -13196,7 +12441,6 @@
           <t>ENGL 2020</t>
         </is>
       </c>
-      <c r="D251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -13214,7 +12458,6 @@
           <t>ENGL 2030</t>
         </is>
       </c>
-      <c r="D252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -13232,7 +12475,6 @@
           <t>HEAL 1025</t>
         </is>
       </c>
-      <c r="D253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -13250,7 +12492,6 @@
           <t>HIST 1101</t>
         </is>
       </c>
-      <c r="D254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -13268,7 +12509,6 @@
           <t>HIST 1130</t>
         </is>
       </c>
-      <c r="D255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -13286,7 +12526,6 @@
           <t>HIST 1601</t>
         </is>
       </c>
-      <c r="D256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -13304,7 +12543,6 @@
           <t>HIST 1701</t>
         </is>
       </c>
-      <c r="D257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -13322,7 +12560,6 @@
           <t>HOPR 2956H</t>
         </is>
       </c>
-      <c r="D258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -13340,7 +12577,6 @@
           <t>INGS 1001</t>
         </is>
       </c>
-      <c r="D259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -13358,7 +12594,6 @@
           <t>INPS 2010</t>
         </is>
       </c>
-      <c r="D260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -13376,7 +12611,6 @@
           <t>LLAC 1020</t>
         </is>
       </c>
-      <c r="D261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -13394,7 +12628,6 @@
           <t>SOCI 1001</t>
         </is>
       </c>
-      <c r="D262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -13412,7 +12645,6 @@
           <t>SOCI 1101</t>
         </is>
       </c>
-      <c r="D263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -13430,7 +12662,6 @@
           <t>SOWJ 1001</t>
         </is>
       </c>
-      <c r="D264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -13448,7 +12679,6 @@
           <t>SOWJ 1101</t>
         </is>
       </c>
-      <c r="D265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -13466,7 +12696,6 @@
           <t>SPAN 3300</t>
         </is>
       </c>
-      <c r="D266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -13484,7 +12713,6 @@
           <t>SPAN 3310</t>
         </is>
       </c>
-      <c r="D267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -13502,7 +12730,6 @@
           <t>THAR 2020</t>
         </is>
       </c>
-      <c r="D268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -13520,7 +12747,6 @@
           <t>AIM 4400</t>
         </is>
       </c>
-      <c r="D269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -13538,7 +12764,6 @@
           <t>AIM 4440</t>
         </is>
       </c>
-      <c r="D270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -13556,7 +12781,6 @@
           <t>AIM 4470</t>
         </is>
       </c>
-      <c r="D271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -13574,7 +12798,6 @@
           <t>ACCO 4080</t>
         </is>
       </c>
-      <c r="D272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -13592,7 +12815,6 @@
           <t>FINA 4075</t>
         </is>
       </c>
-      <c r="D273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -13610,7 +12832,6 @@
           <t>AIM 4320</t>
         </is>
       </c>
-      <c r="D274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -13628,7 +12849,6 @@
           <t>AIM 4931</t>
         </is>
       </c>
-      <c r="D275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -13646,7 +12866,6 @@
           <t>AIM 4995</t>
         </is>
       </c>
-      <c r="D276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -13664,7 +12883,6 @@
           <t>ACCO 4050</t>
         </is>
       </c>
-      <c r="D277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -13682,7 +12900,6 @@
           <t>BUAN 3065</t>
         </is>
       </c>
-      <c r="D278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -13700,7 +12917,6 @@
           <t>ECON 4060</t>
         </is>
       </c>
-      <c r="D279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -13718,7 +12934,6 @@
           <t>ENTP 4010</t>
         </is>
       </c>
-      <c r="D280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -13736,7 +12951,6 @@
           <t>FINA 4002</t>
         </is>
       </c>
-      <c r="D281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -13754,7 +12968,6 @@
           <t>HURE 4101</t>
         </is>
       </c>
-      <c r="D282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -13772,7 +12985,6 @@
           <t>INSY 4053</t>
         </is>
       </c>
-      <c r="D283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -13790,7 +13002,6 @@
           <t>INSY 4054</t>
         </is>
       </c>
-      <c r="D284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -13808,7 +13019,6 @@
           <t>MANA 3034</t>
         </is>
       </c>
-      <c r="D285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -13826,7 +13036,6 @@
           <t>MANA 3035</t>
         </is>
       </c>
-      <c r="D286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -13844,7 +13053,6 @@
           <t>MARK 4094</t>
         </is>
       </c>
-      <c r="D287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -13862,7 +13070,6 @@
           <t>OSCM 4060</t>
         </is>
       </c>
-      <c r="D288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -13880,7 +13087,6 @@
           <t>REAL 3001</t>
         </is>
       </c>
-      <c r="D289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -13898,7 +13104,6 @@
           <t>AIM 4996</t>
         </is>
       </c>
-      <c r="D290" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13911,7 +13116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G198"/>
+  <dimension ref="A1:G199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13967,13 +13172,9 @@
           <t>none</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -13986,13 +13187,9 @@
           <t>ACCO 1030</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -14005,13 +13202,9 @@
           <t>ACCO 1031</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
         <v>2</v>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -14029,7 +13222,6 @@
           <t>major_restriction;hard_prereq_complex</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
         <v>0</v>
       </c>
@@ -14038,7 +13230,6 @@
           <t>Also requires at least 3 additional ACCO major courses; manual review required.</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -14056,7 +13247,6 @@
           <t>major_restriction;hard_prereq_complex</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
         <v>0</v>
       </c>
@@ -14065,7 +13255,6 @@
           <t>Also requires at least 3 additional ACCO major courses; manual review required.</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -14083,7 +13272,6 @@
           <t>major_restriction</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
         <v>0</v>
       </c>
@@ -14092,7 +13280,6 @@
           <t>Restricted to ACCO majors.</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -14105,13 +13292,9 @@
           <t>ACCO 3001</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
         <v>0</v>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -14124,13 +13307,9 @@
           <t>ACCO 3001</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
         <v>0</v>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -14143,13 +13322,9 @@
           <t>ACCO 3001</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
         <v>3</v>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -14162,13 +13337,9 @@
           <t>ACCO 3001</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
         <v>0</v>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -14194,8 +13365,6 @@
       <c r="E12" t="n">
         <v>4</v>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -14208,13 +13377,9 @@
           <t>ACCO 4010</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
         <v>0</v>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -14227,13 +13392,9 @@
           <t>ACCO 1031</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
         <v>2</v>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -14246,13 +13407,9 @@
           <t>ACCO 4050</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
         <v>2</v>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -14270,7 +13427,6 @@
           <t>admitted_program</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
         <v>3</v>
       </c>
@@ -14279,7 +13435,6 @@
           <t>Alternative path includes AIM major or Commercial Banking Program admission.</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -14297,7 +13452,6 @@
           <t>standing_requirement</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
         <v>4</v>
       </c>
@@ -14306,7 +13460,6 @@
           <t>Senior standing required.</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14319,13 +13472,9 @@
           <t>ACCO 4050</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
         <v>0</v>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -14338,8 +13487,6 @@
           <t>ACCO 3001</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
         <v>0</v>
       </c>
@@ -14348,7 +13495,6 @@
           <t>Variable topics.</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -14366,7 +13512,6 @@
           <t>hard_prereq_complex</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
         <v>0</v>
       </c>
@@ -14375,7 +13520,6 @@
           <t>Prereq includes OR instructor consent; manual review required.</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -14393,7 +13537,6 @@
           <t>hard_prereq_complex</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
         <v>0</v>
       </c>
@@ -14402,7 +13545,6 @@
           <t>Consent requirements apply; manual review required.</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -14420,7 +13562,6 @@
           <t>standing_requirement;hard_prereq_complex</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
         <v>3</v>
       </c>
@@ -14429,7 +13570,6 @@
           <t>Junior standing and consent requirements apply; manual review required.</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -14447,7 +13587,6 @@
           <t>major_restriction;hard_prereq_complex</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
         <v>0</v>
       </c>
@@ -14456,7 +13595,6 @@
           <t>Also requires at least 3 additional ACCO major courses; manual review required.</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -14474,7 +13612,6 @@
           <t>instructor_consent;hard_prereq_complex</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
         <v>0</v>
       </c>
@@ -14483,7 +13620,6 @@
           <t>Department chair consent required; manual review required.</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -14501,7 +13637,6 @@
           <t>manual_review</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
         <v>3</v>
       </c>
@@ -14510,7 +13645,6 @@
           <t>Catalog details pending validation.</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -14528,12 +13662,9 @@
           <t>major_restriction;instructor_consent</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
         <v>2</v>
       </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -14559,8 +13690,6 @@
       <c r="E27" t="n">
         <v>3</v>
       </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -14573,13 +13702,9 @@
           <t>AIM 4310</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
         <v>2</v>
       </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -14592,13 +13717,9 @@
           <t>AIM 4320</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
         <v>3</v>
       </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -14616,12 +13737,9 @@
           <t>standing_requirement</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
         <v>1</v>
       </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -14647,8 +13765,6 @@
       <c r="E31" t="n">
         <v>3</v>
       </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -14666,12 +13782,9 @@
           <t>major_restriction</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
         <v>2</v>
       </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -14689,12 +13802,9 @@
           <t>major_restriction</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
         <v>3</v>
       </c>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -14712,12 +13822,9 @@
           <t>major_restriction</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
         <v>3</v>
       </c>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -14735,11 +13842,9 @@
           <t>major_restriction</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
         <v>1</v>
       </c>
-      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
           <t>AIM major declaration required</t>
@@ -14762,12 +13867,9 @@
           <t>major_restriction</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
         <v>2</v>
       </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -14780,13 +13882,9 @@
           <t>AIM 3986</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
         <v>3</v>
       </c>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -14804,12 +13902,9 @@
           <t>major_restriction;instructor_consent</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
       <c r="E38" t="n">
         <v>3</v>
       </c>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -14827,12 +13922,9 @@
           <t>instructor_consent</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
       <c r="E39" t="n">
         <v>3</v>
       </c>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -14850,12 +13942,9 @@
           <t>major_restriction;instructor_consent</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
       <c r="E40" t="n">
         <v>2</v>
       </c>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -14873,12 +13962,9 @@
           <t>major_restriction</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="n">
         <v>0</v>
       </c>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -14891,13 +13977,9 @@
           <t>MATH 1400 or MATH 1450</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
       <c r="E42" t="n">
         <v>2</v>
       </c>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -14923,8 +14005,6 @@
       <c r="E43" t="n">
         <v>1</v>
       </c>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -14937,13 +14017,9 @@
           <t>BUAD 1560</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
       <c r="E44" t="n">
         <v>1</v>
       </c>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -14956,13 +14032,9 @@
           <t>BUAN 3065</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
       <c r="E45" t="n">
         <v>4</v>
       </c>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -14975,13 +14047,9 @@
           <t>BUAN 3065</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
       <c r="E46" t="n">
         <v>4</v>
       </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -14994,13 +14062,9 @@
           <t>BUAN 3065;BUAN 3066</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
       <c r="E47" t="n">
         <v>5</v>
       </c>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -15013,13 +14077,9 @@
           <t>BUAN 3065;BUAN 3066</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
       <c r="E48" t="n">
         <v>5</v>
       </c>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -15037,12 +14097,9 @@
           <t>standing_requirement</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
       <c r="E49" t="n">
         <v>3</v>
       </c>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -15055,13 +14112,9 @@
           <t>BUAN 3986</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
       <c r="E50" t="n">
         <v>5</v>
       </c>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -15074,13 +14127,9 @@
           <t>BUAN 3065</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
       <c r="E51" t="n">
         <v>4</v>
       </c>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -15098,7 +14147,6 @@
           <t>standing_requirement</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
         <v>3</v>
       </c>
@@ -15129,7 +14177,6 @@
           <t>standing_requirement</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
         <v>3</v>
       </c>
@@ -15138,7 +14185,6 @@
           <t>Junior standing required.</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -15156,12 +14202,9 @@
           <t>standing_requirement</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
       <c r="E54" t="n">
         <v>2</v>
       </c>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -15174,13 +14217,9 @@
           <t>none</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
       <c r="E55" t="n">
         <v>0</v>
       </c>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -15193,13 +14232,9 @@
           <t>none</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
       <c r="E56" t="n">
         <v>0</v>
       </c>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -15212,13 +14247,9 @@
           <t>ECON 1103</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
       <c r="E57" t="n">
         <v>1</v>
       </c>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -15231,13 +14262,9 @@
           <t>ECON 1103;ECON 1104;MATH 1400</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
       <c r="E58" t="n">
         <v>2</v>
       </c>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15250,13 +14277,9 @@
           <t>ECON 1103;ECON 1104</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
       <c r="E59" t="n">
         <v>2</v>
       </c>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15269,8 +14292,6 @@
           <t>ECON 1103;ECON 1104</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
       <c r="E60" t="n">
         <v>2</v>
       </c>
@@ -15279,7 +14300,6 @@
           <t>Not offered since 2018</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15292,8 +14312,6 @@
           <t>ECON 1103;ECON 1104</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
       <c r="E61" t="n">
         <v>2</v>
       </c>
@@ -15302,7 +14320,6 @@
           <t>Catalog details pending validation.</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15315,8 +14332,6 @@
           <t>ECON 1103;ECON 1104</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
       <c r="E62" t="n">
         <v>2</v>
       </c>
@@ -15325,7 +14340,6 @@
           <t>Catalog details pending validation.</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -15343,12 +14357,9 @@
           <t>hard_prereq_complex</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
       <c r="E63" t="n">
         <v>2</v>
       </c>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -15361,8 +14372,6 @@
           <t>ECON 3004</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
       <c r="E64" t="n">
         <v>3</v>
       </c>
@@ -15371,7 +14380,6 @@
           <t>Irregular offering schedule</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -15384,8 +14392,6 @@
           <t>BUAD 1001</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
       <c r="E65" t="n">
         <v>1</v>
       </c>
@@ -15394,7 +14400,6 @@
           <t>ENTP majors</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -15407,8 +14412,6 @@
           <t>ENTP 3001</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
       <c r="E66" t="n">
         <v>2</v>
       </c>
@@ -15417,7 +14420,6 @@
           <t>Catalog details pending validation.</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -15430,7 +14432,6 @@
           <t>ACCO 1031;ECON 1103</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
           <t>BUAD 1560</t>
@@ -15444,7 +14445,6 @@
           <t>TODO: complex prereq; extracted codes=ECON 1103, BUAD 1560, MATH 4720, ACCO 1031</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -15462,12 +14462,9 @@
           <t>may_be_concurrent</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
       <c r="E68" t="n">
         <v>3</v>
       </c>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -15485,12 +14482,9 @@
           <t>instructor_consent</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
       <c r="E69" t="n">
         <v>0</v>
       </c>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -15503,13 +14497,9 @@
           <t>FINA 3001</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr"/>
       <c r="E70" t="n">
         <v>3</v>
       </c>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15522,13 +14512,9 @@
           <t>ACCO 1031; FINA 3001</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
       <c r="E71" t="n">
         <v>3</v>
       </c>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15541,13 +14527,9 @@
           <t>FINA 3001</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
       <c r="E72" t="n">
         <v>3</v>
       </c>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15560,13 +14542,9 @@
           <t>ACCO 1031; FINA 3001</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
       <c r="E73" t="n">
         <v>3</v>
       </c>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15579,13 +14557,9 @@
           <t>FINA 3001</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
       <c r="E74" t="n">
         <v>3</v>
       </c>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -15598,13 +14572,9 @@
           <t>FINA 3001</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
       <c r="E75" t="n">
         <v>3</v>
       </c>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -15617,13 +14587,9 @@
           <t>FINA 3001</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
       <c r="E76" t="n">
         <v>3</v>
       </c>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -15636,13 +14602,9 @@
           <t>FINA 3001</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
       <c r="E77" t="n">
         <v>3</v>
       </c>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -15655,13 +14617,9 @@
           <t>FINA 3001</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
       <c r="E78" t="n">
         <v>3</v>
       </c>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -15674,13 +14632,9 @@
           <t>FINA 3001</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
       <c r="E79" t="n">
         <v>3</v>
       </c>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -15693,13 +14647,9 @@
           <t>FINA 3001</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
       <c r="E80" t="n">
         <v>3</v>
       </c>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -15712,13 +14662,9 @@
           <t>FINA 3001; FINA 4001</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
       <c r="E81" t="n">
         <v>4</v>
       </c>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -15731,13 +14677,9 @@
           <t>FINA 3001</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
       <c r="E82" t="n">
         <v>3</v>
       </c>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -15750,13 +14692,9 @@
           <t>FINA 3001</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
       <c r="E83" t="n">
         <v>3</v>
       </c>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -15774,12 +14712,9 @@
           <t>may_be_concurrent</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr"/>
       <c r="E84" t="n">
         <v>4</v>
       </c>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -15792,13 +14727,9 @@
           <t>FINA 3001</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
       <c r="E85" t="n">
         <v>3</v>
       </c>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -15811,13 +14742,9 @@
           <t>FINA 3001</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
       <c r="E86" t="n">
         <v>3</v>
       </c>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -15830,13 +14757,9 @@
           <t>FINA 4001; FINA 4011; FINA 4020; FINA 4121; FINA 4122</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
       <c r="E87" t="n">
         <v>4</v>
       </c>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -15849,13 +14772,9 @@
           <t>FINA 3001</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
       <c r="E88" t="n">
         <v>3</v>
       </c>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -15873,7 +14792,6 @@
           <t>major_restriction</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr"/>
       <c r="E89" t="n">
         <v>3</v>
       </c>
@@ -15882,7 +14800,6 @@
           <t>TODO: complex prereq; extracted codes=FINA 3002, MANA 3001</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -15900,12 +14817,9 @@
           <t>admitted_program</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr"/>
       <c r="E90" t="n">
         <v>4</v>
       </c>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -15918,13 +14832,9 @@
           <t>FINA 3002; FINA 4210</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
       <c r="E91" t="n">
         <v>4</v>
       </c>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -15937,13 +14847,9 @@
           <t>FINA 3001</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
       <c r="E92" t="n">
         <v>3</v>
       </c>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -15956,13 +14862,9 @@
           <t>FINA 3001</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
       <c r="E93" t="n">
         <v>3</v>
       </c>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -15975,13 +14877,9 @@
           <t>FINA 3986</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr"/>
       <c r="E94" t="n">
         <v>4</v>
       </c>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -15994,13 +14892,9 @@
           <t>FINA 3001</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
       <c r="E95" t="n">
         <v>3</v>
       </c>
-      <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -16018,12 +14912,9 @@
           <t>instructor_consent</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr"/>
       <c r="E96" t="n">
         <v>0</v>
       </c>
-      <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -16036,8 +14927,6 @@
           <t>FINA 3001</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr"/>
       <c r="E97" t="n">
         <v>3</v>
       </c>
@@ -16046,7 +14935,6 @@
           <t>Catalog details pending validation.</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -16059,8 +14947,6 @@
           <t>BUAD 1001</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
       <c r="E98" t="n">
         <v>1</v>
       </c>
@@ -16069,7 +14955,6 @@
           <t>Alternate non-business/minor pathways exist; catalog review may be needed.</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -16087,7 +14972,6 @@
           <t>hard_prereq_complex</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr"/>
       <c r="E99" t="n">
         <v>3</v>
       </c>
@@ -16096,7 +14980,6 @@
           <t>OR-based stats prereq path; manual review may be needed.</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -16109,13 +14992,9 @@
           <t>HURE 3001</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr"/>
       <c r="E100" t="n">
         <v>3</v>
       </c>
-      <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -16133,7 +15012,6 @@
           <t>instructor_consent</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr"/>
       <c r="E101" t="n">
         <v>3</v>
       </c>
@@ -16142,7 +15020,6 @@
           <t>Catalog details pending validation.</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -16160,12 +15037,9 @@
           <t>standing_requirement</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr"/>
       <c r="E102" t="n">
         <v>2</v>
       </c>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -16178,13 +15052,9 @@
           <t>INSY 3001 or ACCO 4050</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
       <c r="E103" t="n">
         <v>1</v>
       </c>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -16197,13 +15067,9 @@
           <t>INSY 3001 or ACCO 4050</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr"/>
-      <c r="D104" t="inlineStr"/>
       <c r="E104" t="n">
         <v>1</v>
       </c>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -16216,13 +15082,9 @@
           <t>INSY 3001 or ACCO 4050</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
       <c r="E105" t="n">
         <v>2</v>
       </c>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -16235,13 +15097,9 @@
           <t>INSY 3001 or ACCO 4050</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr"/>
       <c r="E106" t="n">
         <v>1</v>
       </c>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -16259,7 +15117,6 @@
           <t>manual_review</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr"/>
       <c r="E107" t="n">
         <v>1</v>
       </c>
@@ -16268,7 +15125,6 @@
           <t>Catalog has additional OR branch (INSY 4051 or BUAN 3066 or consent).</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -16281,13 +15137,9 @@
           <t>INSY 4051 or COSC 1010</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr"/>
-      <c r="D108" t="inlineStr"/>
       <c r="E108" t="n">
         <v>1</v>
       </c>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -16305,12 +15157,9 @@
           <t>standing_requirement</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr"/>
       <c r="E109" t="n">
         <v>1</v>
       </c>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -16323,13 +15172,9 @@
           <t>INSY 3001 or ACCO 4050</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
       <c r="E110" t="n">
         <v>1</v>
       </c>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -16347,7 +15192,6 @@
           <t>manual_review</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr"/>
       <c r="E111" t="n">
         <v>2</v>
       </c>
@@ -16356,7 +15200,6 @@
           <t>Catalog requires any two from 4051/4052/4053/4054/4055.</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -16369,13 +15212,9 @@
           <t>INSY 3001</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
       <c r="E112" t="n">
         <v>1</v>
       </c>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -16388,13 +15227,9 @@
           <t>INSY 3986</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
       <c r="E113" t="n">
         <v>2</v>
       </c>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -16407,13 +15242,9 @@
           <t>INSY 3001 or ACCO 4050</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr"/>
       <c r="E114" t="n">
         <v>1</v>
       </c>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -16431,12 +15262,9 @@
           <t>instructor_consent</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr"/>
       <c r="E115" t="n">
         <v>0</v>
       </c>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -16449,13 +15277,9 @@
           <t>none</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
       <c r="E116" t="n">
         <v>0</v>
       </c>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -16473,12 +15297,9 @@
           <t>may_be_concurrent;standing_requirement</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr"/>
       <c r="E117" t="n">
         <v>2</v>
       </c>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -16496,12 +15317,9 @@
           <t>standing_requirement</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr"/>
       <c r="E118" t="n">
         <v>3</v>
       </c>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -16519,12 +15337,9 @@
           <t>standing_requirement</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr"/>
       <c r="E119" t="n">
         <v>2</v>
       </c>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -16542,12 +15357,9 @@
           <t>standing_requirement</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr"/>
       <c r="E120" t="n">
         <v>3</v>
       </c>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -16565,7 +15377,6 @@
           <t>standing_requirement</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr"/>
       <c r="E121" t="n">
         <v>3</v>
       </c>
@@ -16574,7 +15385,6 @@
           <t>Placeholder metadata; full prerequisites pending.</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -16592,7 +15402,6 @@
           <t>standing_requirement</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr"/>
       <c r="E122" t="n">
         <v>3</v>
       </c>
@@ -16601,7 +15410,6 @@
           <t>Catalog details pending validation.</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -16619,12 +15427,9 @@
           <t>standing_requirement</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr"/>
       <c r="E123" t="n">
         <v>4</v>
       </c>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -16642,12 +15447,9 @@
           <t>standing_requirement</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr"/>
       <c r="E124" t="n">
         <v>2</v>
       </c>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -16660,13 +15462,9 @@
           <t>MARK 3001</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr"/>
-      <c r="D125" t="inlineStr"/>
       <c r="E125" t="n">
         <v>2</v>
       </c>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -16684,12 +15482,9 @@
           <t>hard_prereq_complex</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr"/>
       <c r="E126" t="n">
         <v>2</v>
       </c>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -16707,12 +15502,9 @@
           <t>hard_prereq_complex</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr"/>
       <c r="E127" t="n">
         <v>2</v>
       </c>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -16730,7 +15522,6 @@
           <t>standing_requirement</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr"/>
       <c r="E128" t="n">
         <v>2</v>
       </c>
@@ -16739,7 +15530,6 @@
           <t>Placeholder metadata; full prerequisites pending.</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -16752,13 +15542,9 @@
           <t>MARK 3001</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr"/>
       <c r="E129" t="n">
         <v>2</v>
       </c>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -16776,12 +15562,9 @@
           <t>instructor_consent;standing_requirement</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr"/>
       <c r="E130" t="n">
         <v>0</v>
       </c>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -16799,12 +15582,9 @@
           <t>placement_required</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr"/>
       <c r="E131" t="n">
         <v>1</v>
       </c>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -16822,12 +15602,9 @@
           <t>placement_required</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr"/>
       <c r="E132" t="n">
         <v>1</v>
       </c>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -16845,12 +15622,9 @@
           <t>standing_requirement</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr"/>
       <c r="E133" t="n">
         <v>2</v>
       </c>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -16863,13 +15637,9 @@
           <t>OSCM 3001</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr"/>
       <c r="E134" t="n">
         <v>1</v>
       </c>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -16882,13 +15652,9 @@
           <t>OSCM 3001</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr"/>
       <c r="E135" t="n">
         <v>1</v>
       </c>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -16901,13 +15667,9 @@
           <t>OSCM 3001</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr"/>
-      <c r="D136" t="inlineStr"/>
       <c r="E136" t="n">
         <v>1</v>
       </c>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -16920,13 +15682,9 @@
           <t>OSCM 3001</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr"/>
       <c r="E137" t="n">
         <v>1</v>
       </c>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -16939,13 +15697,9 @@
           <t>OSCM 3001</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr"/>
       <c r="E138" t="n">
         <v>1</v>
       </c>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -16958,13 +15712,9 @@
           <t>OSCM 3001</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr"/>
       <c r="E139" t="n">
         <v>1</v>
       </c>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -16977,13 +15727,9 @@
           <t>OSCM 3001</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr"/>
       <c r="E140" t="n">
         <v>2</v>
       </c>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -16996,13 +15742,9 @@
           <t>OSCM 3001</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr"/>
       <c r="E141" t="n">
         <v>1</v>
       </c>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -17015,13 +15757,9 @@
           <t>OSCM 3001</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr"/>
       <c r="E142" t="n">
         <v>1</v>
       </c>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -17034,13 +15772,9 @@
           <t>OSCM 3001;INSY 3001</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr"/>
       <c r="E143" t="n">
         <v>1</v>
       </c>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -17053,13 +15787,9 @@
           <t>OSCM 3001</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr"/>
       <c r="E144" t="n">
         <v>2</v>
       </c>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -17072,13 +15802,9 @@
           <t>OSCM 3001</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr"/>
       <c r="E145" t="n">
         <v>1</v>
       </c>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -17091,13 +15817,9 @@
           <t>OSCM 3001</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr"/>
-      <c r="D146" t="inlineStr"/>
       <c r="E146" t="n">
         <v>1</v>
       </c>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -17110,13 +15832,9 @@
           <t>OSCM 3001</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr"/>
       <c r="E147" t="n">
         <v>1</v>
       </c>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -17129,13 +15847,9 @@
           <t>OSCM 3001;OSCM 4040;OSCM 4060</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr"/>
-      <c r="D148" t="inlineStr"/>
       <c r="E148" t="n">
         <v>2</v>
       </c>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -17148,13 +15862,9 @@
           <t>OSCM 3001</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr"/>
-      <c r="D149" t="inlineStr"/>
       <c r="E149" t="n">
         <v>1</v>
       </c>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -17167,13 +15877,9 @@
           <t>OSCM 3986</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr"/>
-      <c r="D150" t="inlineStr"/>
       <c r="E150" t="n">
         <v>2</v>
       </c>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -17186,13 +15892,9 @@
           <t>OSCM 3001</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr"/>
-      <c r="D151" t="inlineStr"/>
       <c r="E151" t="n">
         <v>1</v>
       </c>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -17210,12 +15912,9 @@
           <t>instructor_consent</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr"/>
       <c r="E152" t="n">
         <v>0</v>
       </c>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -17233,7 +15932,6 @@
           <t>standing_requirement;manual_review</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr"/>
       <c r="E153" t="n">
         <v>2</v>
       </c>
@@ -17242,7 +15940,6 @@
           <t>Catalog has OR-branch at final requirement; stored as conservative hard prereq.</t>
         </is>
       </c>
-      <c r="G153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -17255,13 +15952,9 @@
           <t>PHIL 1001</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr"/>
-      <c r="D154" t="inlineStr"/>
       <c r="E154" t="n">
         <v>1</v>
       </c>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -17274,13 +15967,9 @@
           <t>ECON 1103;ACCO 1030</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr"/>
-      <c r="D155" t="inlineStr"/>
       <c r="E155" t="n">
         <v>1</v>
       </c>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -17293,13 +15982,9 @@
           <t>REAL 3001 or FINA 4002</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr"/>
-      <c r="D156" t="inlineStr"/>
       <c r="E156" t="n">
         <v>2</v>
       </c>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -17312,13 +15997,9 @@
           <t>REAL 3001 or FINA 4002</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr"/>
-      <c r="D157" t="inlineStr"/>
       <c r="E157" t="n">
         <v>2</v>
       </c>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -17366,8 +16047,6 @@
           <t>HURE 3001</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr"/>
-      <c r="D159" t="inlineStr"/>
       <c r="E159" t="n">
         <v>2</v>
       </c>
@@ -17376,7 +16055,6 @@
           <t>Consent required.</t>
         </is>
       </c>
-      <c r="G159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -17407,7 +16085,6 @@
           <t>Declared HURE minor required; not available to CBA students.</t>
         </is>
       </c>
-      <c r="G160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -17420,13 +16097,9 @@
           <t>HURE 3001</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr"/>
-      <c r="D161" t="inlineStr"/>
       <c r="E161" t="n">
         <v>3</v>
       </c>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -17444,7 +16117,6 @@
           <t>hard_prereq_complex</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr"/>
       <c r="E162" t="n">
         <v>3</v>
       </c>
@@ -17453,7 +16125,6 @@
           <t>Non-business alternatives for statistics exist; manual review for OR pathways.</t>
         </is>
       </c>
-      <c r="G162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -17471,7 +16142,6 @@
           <t>hard_prereq_complex</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr"/>
       <c r="E163" t="n">
         <v>3</v>
       </c>
@@ -17480,7 +16150,6 @@
           <t>Non-business alternatives for statistics exist; manual review for OR pathways.</t>
         </is>
       </c>
-      <c r="G163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -17493,13 +16162,9 @@
           <t>HURE 3001</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr"/>
-      <c r="D164" t="inlineStr"/>
       <c r="E164" t="n">
         <v>3</v>
       </c>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -17512,13 +16177,9 @@
           <t>HURE 3001</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr"/>
-      <c r="D165" t="inlineStr"/>
       <c r="E165" t="n">
         <v>3</v>
       </c>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -17531,8 +16192,6 @@
           <t>HURE 3001</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr"/>
-      <c r="D166" t="inlineStr"/>
       <c r="E166" t="n">
         <v>2</v>
       </c>
@@ -17541,7 +16200,6 @@
           <t>Topics vary.</t>
         </is>
       </c>
-      <c r="G166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -17554,8 +16212,6 @@
           <t>HURE 3986</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr"/>
-      <c r="D167" t="inlineStr"/>
       <c r="E167" t="n">
         <v>3</v>
       </c>
@@ -17564,7 +16220,6 @@
           <t>Consent required.</t>
         </is>
       </c>
-      <c r="G167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -17577,8 +16232,6 @@
           <t>HURE 3001</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr"/>
-      <c r="D168" t="inlineStr"/>
       <c r="E168" t="n">
         <v>3</v>
       </c>
@@ -17587,7 +16240,6 @@
           <t>Consent required.</t>
         </is>
       </c>
-      <c r="G168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -17618,7 +16270,6 @@
           <t>Declared HURE minor required; not available to CBA students.</t>
         </is>
       </c>
-      <c r="G169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -17649,7 +16300,6 @@
           <t>Declared HURE minor required.</t>
         </is>
       </c>
-      <c r="G170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -17667,7 +16317,6 @@
           <t>instructor_consent</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr"/>
       <c r="E171" t="n">
         <v>3</v>
       </c>
@@ -17676,7 +16325,6 @@
           <t>Department chair consent required.</t>
         </is>
       </c>
-      <c r="G171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -17694,7 +16342,6 @@
           <t>standing_requirement</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr"/>
       <c r="E172" t="n">
         <v>3</v>
       </c>
@@ -17703,7 +16350,6 @@
           <t>Placeholder metadata; full prerequisites pending.</t>
         </is>
       </c>
-      <c r="G172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -17721,7 +16367,6 @@
           <t>manual_review</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr"/>
       <c r="E173" t="n">
         <v>3</v>
       </c>
@@ -17730,7 +16375,6 @@
           <t>Placeholder metadata; full prerequisites pending.</t>
         </is>
       </c>
-      <c r="G173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -17743,13 +16387,9 @@
           <t>none</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr"/>
-      <c r="D174" t="inlineStr"/>
       <c r="E174" t="n">
         <v>0</v>
       </c>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -17762,13 +16402,9 @@
           <t>none</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr"/>
-      <c r="D175" t="inlineStr"/>
       <c r="E175" t="n">
         <v>0</v>
       </c>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -17781,13 +16417,9 @@
           <t>none</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr"/>
-      <c r="D176" t="inlineStr"/>
       <c r="E176" t="n">
         <v>0</v>
       </c>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -17805,12 +16437,9 @@
           <t>standing_requirement</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr"/>
       <c r="E177" t="n">
         <v>2</v>
       </c>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -17823,13 +16452,9 @@
           <t>none</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr"/>
-      <c r="D178" t="inlineStr"/>
       <c r="E178" t="n">
         <v>0</v>
       </c>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -17842,13 +16467,9 @@
           <t>none</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr"/>
-      <c r="D179" t="inlineStr"/>
       <c r="E179" t="n">
         <v>0</v>
       </c>
-      <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -17861,13 +16482,9 @@
           <t>none</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr"/>
-      <c r="D180" t="inlineStr"/>
       <c r="E180" t="n">
         <v>0</v>
       </c>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -17880,13 +16497,9 @@
           <t>none</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr"/>
-      <c r="D181" t="inlineStr"/>
       <c r="E181" t="n">
         <v>0</v>
       </c>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -17899,13 +16512,9 @@
           <t>none</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr"/>
-      <c r="D182" t="inlineStr"/>
       <c r="E182" t="n">
         <v>0</v>
       </c>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -17918,13 +16527,9 @@
           <t>none</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr"/>
-      <c r="D183" t="inlineStr"/>
       <c r="E183" t="n">
         <v>0</v>
       </c>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -17937,13 +16542,9 @@
           <t>none</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr"/>
-      <c r="D184" t="inlineStr"/>
       <c r="E184" t="n">
         <v>0</v>
       </c>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -17956,13 +16557,9 @@
           <t>none</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr"/>
-      <c r="D185" t="inlineStr"/>
       <c r="E185" t="n">
         <v>0</v>
       </c>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -17975,13 +16572,9 @@
           <t>none</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr"/>
-      <c r="D186" t="inlineStr"/>
       <c r="E186" t="n">
         <v>0</v>
       </c>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -17999,12 +16592,9 @@
           <t>admitted_program;standing_requirement</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr"/>
       <c r="E187" t="n">
         <v>2</v>
       </c>
-      <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -18017,13 +16607,9 @@
           <t>none</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr"/>
-      <c r="D188" t="inlineStr"/>
       <c r="E188" t="n">
         <v>0</v>
       </c>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -18041,12 +16627,9 @@
           <t>standing_requirement;instructor_consent</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr"/>
       <c r="E189" t="n">
         <v>1</v>
       </c>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -18059,13 +16642,9 @@
           <t>none</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr"/>
-      <c r="D190" t="inlineStr"/>
       <c r="E190" t="n">
         <v>0</v>
       </c>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -18078,13 +16657,9 @@
           <t>none</t>
         </is>
       </c>
-      <c r="C191" t="inlineStr"/>
-      <c r="D191" t="inlineStr"/>
       <c r="E191" t="n">
         <v>0</v>
       </c>
-      <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -18097,13 +16672,9 @@
           <t>none</t>
         </is>
       </c>
-      <c r="C192" t="inlineStr"/>
-      <c r="D192" t="inlineStr"/>
       <c r="E192" t="n">
         <v>0</v>
       </c>
-      <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -18116,13 +16687,9 @@
           <t>none</t>
         </is>
       </c>
-      <c r="C193" t="inlineStr"/>
-      <c r="D193" t="inlineStr"/>
       <c r="E193" t="n">
         <v>0</v>
       </c>
-      <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -18135,13 +16702,9 @@
           <t>none</t>
         </is>
       </c>
-      <c r="C194" t="inlineStr"/>
-      <c r="D194" t="inlineStr"/>
       <c r="E194" t="n">
         <v>0</v>
       </c>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -18154,13 +16717,9 @@
           <t>SPAN 3001 or SPAN 3005</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr"/>
-      <c r="D195" t="inlineStr"/>
       <c r="E195" t="n">
         <v>0</v>
       </c>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -18173,13 +16732,9 @@
           <t>SPAN 3001 or SPAN 3005</t>
         </is>
       </c>
-      <c r="C196" t="inlineStr"/>
-      <c r="D196" t="inlineStr"/>
       <c r="E196" t="n">
         <v>0</v>
       </c>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -18192,13 +16747,9 @@
           <t>none</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr"/>
-      <c r="D197" t="inlineStr"/>
       <c r="E197" t="n">
         <v>0</v>
       </c>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -18216,12 +16767,26 @@
           <t>standing_requirement</t>
         </is>
       </c>
-      <c r="D198" t="inlineStr"/>
       <c r="E198" t="n">
         <v>3</v>
       </c>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>ENTP 3080</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>ENTP 3001</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Catalog-backed prerequisite.</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18234,7 +16799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D198"/>
+  <dimension ref="A1:D199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21413,6 +19978,22 @@
         <v>1</v>
       </c>
       <c r="D198" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>ENTP 3080</t>
+        </is>
+      </c>
+      <c r="B199" t="b">
+        <v>0</v>
+      </c>
+      <c r="C199" t="b">
+        <v>0</v>
+      </c>
+      <c r="D199" t="b">
         <v>1</v>
       </c>
     </row>
